--- a/Timesheet Danamon_Bayu Bagus Bagaswara_October 1.xlsx
+++ b/Timesheet Danamon_Bayu Bagus Bagaswara_October 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v00028684\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankdanamonindonesia-my.sharepoint.com/personal/v00028684_danamon_co_id/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{415E537A-6E25-4668-B89C-749B2694CC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CD6769A-0759-4D53-89BA-0A5309CA86AB}"/>
+  <xr:revisionPtr revIDLastSave="413" documentId="13_ncr:1_{415E537A-6E25-4668-B89C-749B2694CC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AEF39E0-593E-4EBE-9465-AF79D85C00E8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="1" xr2:uid="{287076C2-500C-4AE4-B01E-3C74A6B599A0}"/>
   </bookViews>
@@ -25,30 +25,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -63,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="225">
   <si>
     <t>Timesheet Period</t>
   </si>
@@ -297,24 +286,6 @@
   </si>
   <si>
     <t>CRF-5094 CSA Release 9B - LKPBU &amp; LBABK</t>
-  </si>
-  <si>
-    <t>Brainstorming and analyze dashboard monitoring data status features</t>
-  </si>
-  <si>
-    <t>CRF-5094</t>
-  </si>
-  <si>
-    <t>Brainstorming and analyze filtering data Asset Under Custody</t>
-  </si>
-  <si>
-    <t>Development monitoring dashboard data status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development approval </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review code mmotioring </t>
   </si>
   <si>
     <t>Daily IT TFC</t>
@@ -754,17 +725,170 @@
 Harry Potter</t>
     </r>
   </si>
+  <si>
+    <t>Brainstorming and analyze process of dashboard monitoring data status features</t>
+  </si>
+  <si>
+    <t>Brainstorming and analye process of Process Asset Under Custody features</t>
+  </si>
+  <si>
+    <t>Brainstorming and analyze process of Generate TXT file Asset Under Custody features</t>
+  </si>
+  <si>
+    <t>Brainstorming and analyze process of Update data Asset Under Custody by type effect code Mutual Fund features</t>
+  </si>
+  <si>
+    <t>Development Code</t>
+  </si>
+  <si>
+    <t>Development code for Util Class with trimIfNotNull and setIfNullOrEmpty functions</t>
+  </si>
+  <si>
+    <t>Brainstorm and analyze process trim request data</t>
+  </si>
+  <si>
+    <t>Brainstorming and analyze process of get all data and filtering zero value Asset Under Custody features</t>
+  </si>
+  <si>
+    <t>Development code trimIfNotNul and setIfNullOrEmpty functions in the Golongan Pemilik service</t>
+  </si>
+  <si>
+    <t>Development code trimIfNotNul and setIfNullOrEmpty functions in the Exchange Rate service</t>
+  </si>
+  <si>
+    <t>Development code trimIfNotNul and setIfNullOrEmpty functions in the Insurance Pension Fund service</t>
+  </si>
+  <si>
+    <t>Development code trimIfNotNul and setIfNullOrEmpty functions in the Issuer Code Placement Bank service</t>
+  </si>
+  <si>
+    <t>Development code trimIfNotNul and setIfNullOrEmpty functions in the Kode ISIN Efek service</t>
+  </si>
+  <si>
+    <t>Development code trimIfNotNul and setIfNullOrEmpty functions in the Kode Issuer Efek service</t>
+  </si>
+  <si>
+    <t>Development code to handle exception is ExchangeRateNotFoundException class</t>
+  </si>
+  <si>
+    <t>Added exchange rate not found exception in the global exception handler</t>
+  </si>
+  <si>
+    <t>Added logic to handle exchange rate not found in the AssetUnderCustody service</t>
+  </si>
+  <si>
+    <t>Data grouping based on IDR and USD currencies during the Assets Under Custody calculation process</t>
+  </si>
+  <si>
+    <t>Added logic to skip calculation if data source category is Fund Services</t>
+  </si>
+  <si>
+    <t>Add logic to add up all USD data, then multiply by the exchange rate</t>
+  </si>
+  <si>
+    <t>Create a Util Class to extract type effect code from data source LKPBU</t>
+  </si>
+  <si>
+    <t>Add LBABK investor confirmation data column format</t>
+  </si>
+  <si>
+    <t>Create a mapper class to map LKPBU model data to DTO classes</t>
+  </si>
+  <si>
+    <t>Create condition checking code to determine LKPBU interest rate data</t>
+  </si>
+  <si>
+    <t>Add errorMessages field in DataStatus model to accommodate error messages when reading data source</t>
+  </si>
+  <si>
+    <t>Update the findAllByDataConcatAndMonthAndYear query method to retrieve Income data</t>
+  </si>
+  <si>
+    <t>Add updateDataStatus and handleGeneralError logic functions in Income service to retrieve error message</t>
+  </si>
+  <si>
+    <t>Update logic code to handle income data if the data is more than 1</t>
+  </si>
+  <si>
+    <t>Updated the handleGeneralError and updateDataStatus logic functions in the LBABKDataSource service to set error messages</t>
+  </si>
+  <si>
+    <t>Add enum values ​​for all type effects in TypeEffectEnum</t>
+  </si>
+  <si>
+    <t>Add logic to generate txt file Asset Under Custody and save to server. Sorts data by code in ascending order</t>
+  </si>
+  <si>
+    <t>Updated the Issuer Placement Bank enum validator logic based on golongan pemilik data</t>
+  </si>
+  <si>
+    <t>Update logic validation alphanumeric data</t>
+  </si>
+  <si>
+    <t>Add DataNotFoundHandleException exception and register it to global exception handler</t>
+  </si>
+  <si>
+    <t>Create a checkAndConvert function to determine the value of the LKPBU lembar unit</t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
+  </si>
+  <si>
+    <t>SIT</t>
+  </si>
+  <si>
+    <t>Unit testing read data source and validation data</t>
+  </si>
+  <si>
+    <t>Unit testing approval maintenance and data change</t>
+  </si>
+  <si>
+    <t>Unit testing upload file LBABK, LKPBU, and Income</t>
+  </si>
+  <si>
+    <t>Unit testing upload file maintenance</t>
+  </si>
+  <si>
+    <t>Config and deploy to the server SIT</t>
+  </si>
+  <si>
+    <t>Analyze and bug fixing portfolio code less than 6 characters and alphanumeric in the Asuransi Dapen</t>
+  </si>
+  <si>
+    <t>Analyze and bug fixing portfolio code must not be blank in the Asuransi Dapen</t>
+  </si>
+  <si>
+    <t>Support SIT upload data maintenance Asuransi Dapen and approval feature</t>
+  </si>
+  <si>
+    <t>Support SIT upload data maintenance Golongan Pemilik and approval feature</t>
+  </si>
+  <si>
+    <t>Support SIT upload data maintenance Kode ISIN Efek and approval feature</t>
+  </si>
+  <si>
+    <t>Support SIT upload data maintenance Kode Issuer Efek and approval feature</t>
+  </si>
+  <si>
+    <t>Support SIT upload data maintenance Issuer Placement Bank feature</t>
+  </si>
+  <si>
+    <t>Support SIT maintenance Closing Rate feature</t>
+  </si>
+  <si>
+    <t>Analyze and bug fixing country can not be updated</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,7 +1052,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1013,8 +1137,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1587,6 +1717,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1594,9 +1737,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1743,10 +1886,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1974,7 +2117,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2011,9 +2154,48 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2116,30 +2298,6 @@
     <xf numFmtId="0" fontId="18" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2194,26 +2352,54 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2719,25 +2905,25 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="4" customWidth="1"/>
-    <col min="5" max="8" width="6.85546875" style="4" customWidth="1"/>
-    <col min="9" max="10" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.85546875" style="4" customWidth="1"/>
-    <col min="13" max="18" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="30" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.85546875" style="4" customWidth="1"/>
-    <col min="35" max="35" width="11.42578125" style="4" customWidth="1"/>
-    <col min="36" max="36" width="0.28515625" style="4" customWidth="1"/>
-    <col min="37" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" width="24.1796875" style="42" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" style="4" customWidth="1"/>
+    <col min="5" max="8" width="6.81640625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.81640625" style="4" customWidth="1"/>
+    <col min="13" max="18" width="7.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="6.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="7.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.81640625" style="4" customWidth="1"/>
+    <col min="35" max="35" width="11.453125" style="4" customWidth="1"/>
+    <col min="36" max="36" width="0.26953125" style="4" customWidth="1"/>
+    <col min="37" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="17.100000000000001">
+    <row r="1" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -2760,7 +2946,7 @@
       <c r="P1" s="78"/>
       <c r="Q1" s="78"/>
     </row>
-    <row r="2" spans="1:35" ht="17.100000000000001">
+    <row r="2" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A2" s="76" t="s">
         <v>2</v>
       </c>
@@ -2785,7 +2971,7 @@
       <c r="P2" s="78"/>
       <c r="Q2" s="78"/>
     </row>
-    <row r="3" spans="1:35" ht="17.100000000000001">
+    <row r="3" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A3" s="76" t="s">
         <v>4</v>
       </c>
@@ -2810,7 +2996,7 @@
       <c r="P3" s="78"/>
       <c r="Q3" s="78"/>
     </row>
-    <row r="4" spans="1:35" ht="17.100000000000001">
+    <row r="4" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A4" s="76"/>
       <c r="B4" s="81"/>
       <c r="C4" s="76"/>
@@ -2829,7 +3015,7 @@
       <c r="P4" s="78"/>
       <c r="Q4" s="78"/>
     </row>
-    <row r="5" spans="1:35" ht="17.100000000000001">
+    <row r="5" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A5" s="74" t="s">
         <v>6</v>
       </c>
@@ -2852,14 +3038,14 @@
       </c>
       <c r="L5" s="78"/>
       <c r="M5" s="78"/>
-      <c r="N5" s="146" t="s">
+      <c r="N5" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="146"/>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="146"/>
-    </row>
-    <row r="6" spans="1:35" ht="17.100000000000001">
+      <c r="O5" s="159"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="159"/>
+    </row>
+    <row r="6" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A6" s="74" t="s">
         <v>12</v>
       </c>
@@ -2882,15 +3068,15 @@
       </c>
       <c r="L6" s="87"/>
       <c r="M6" s="76"/>
-      <c r="N6" s="145" t="s">
+      <c r="N6" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="145"/>
-      <c r="P6" s="145"/>
-      <c r="Q6" s="145"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="158"/>
+      <c r="Q6" s="158"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:35" s="42" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:35" s="42" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="74" t="s">
         <v>18</v>
       </c>
@@ -2909,14 +3095,14 @@
       <c r="P7" s="76"/>
       <c r="Q7" s="76"/>
     </row>
-    <row r="9" spans="1:35" ht="17.100000000000001">
-      <c r="A9" s="179" t="s">
+    <row r="9" spans="1:35" ht="17" x14ac:dyDescent="0.35">
+      <c r="A9" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="179" t="s">
+      <c r="C9" s="149" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="50" t="str">
@@ -3039,17 +3225,17 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="AH9" s="143" t="s">
+      <c r="AH9" s="150" t="s">
         <v>23</v>
       </c>
       <c r="AI9" s="90" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="17.100000000000001">
-      <c r="A10" s="179"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="179"/>
+    <row r="10" spans="1:35" ht="17" x14ac:dyDescent="0.35">
+      <c r="A10" s="149"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="149"/>
       <c r="D10" s="51" cm="1">
         <f t="array" ref="D10:AG10">IFERROR(IF(OR((B3-B2+1)&gt;31,B2="",B3=""),"",_xlfn.SEQUENCE(,B3-B2+1,B2)),"")</f>
         <v>45536</v>
@@ -3141,10 +3327,10 @@
       <c r="AG10" s="51">
         <v>45565</v>
       </c>
-      <c r="AH10" s="143"/>
+      <c r="AH10" s="150"/>
       <c r="AI10" s="90"/>
     </row>
-    <row r="11" spans="1:35" ht="17.100000000000001">
+    <row r="11" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A11" s="66" t="s">
         <v>25</v>
       </c>
@@ -3183,7 +3369,7 @@
       <c r="AH11" s="55"/>
       <c r="AI11" s="73"/>
     </row>
-    <row r="12" spans="1:35" ht="17.100000000000001">
+    <row r="12" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A12" s="88" t="s">
         <v>26</v>
       </c>
@@ -3259,7 +3445,7 @@
       </c>
       <c r="AI12" s="73"/>
     </row>
-    <row r="13" spans="1:35" ht="17.100000000000001">
+    <row r="13" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="B13" s="89" t="s">
         <v>28</v>
       </c>
@@ -3330,7 +3516,7 @@
       </c>
       <c r="AI13" s="73"/>
     </row>
-    <row r="14" spans="1:35" ht="33.950000000000003">
+    <row r="14" spans="1:35" ht="34" x14ac:dyDescent="0.4">
       <c r="A14" s="89" t="s">
         <v>29</v>
       </c>
@@ -3402,7 +3588,7 @@
       </c>
       <c r="AI14" s="73"/>
     </row>
-    <row r="15" spans="1:35" ht="17.100000000000001">
+    <row r="15" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A15" s="67"/>
       <c r="B15" s="56"/>
       <c r="C15" s="57"/>
@@ -3439,7 +3625,7 @@
       <c r="AH15" s="58"/>
       <c r="AI15" s="73"/>
     </row>
-    <row r="16" spans="1:35" ht="17.100000000000001">
+    <row r="16" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A16" s="67"/>
       <c r="B16" s="56"/>
       <c r="C16" s="57"/>
@@ -3476,7 +3662,7 @@
       <c r="AH16" s="58"/>
       <c r="AI16" s="73"/>
     </row>
-    <row r="17" spans="1:36" ht="17.100000000000001">
+    <row r="17" spans="1:36" ht="17" x14ac:dyDescent="0.4">
       <c r="A17" s="66" t="s">
         <v>31</v>
       </c>
@@ -3515,7 +3701,7 @@
       <c r="AH17" s="55"/>
       <c r="AI17" s="73"/>
     </row>
-    <row r="18" spans="1:36" ht="17.100000000000001">
+    <row r="18" spans="1:36" ht="17" x14ac:dyDescent="0.4">
       <c r="A18" s="67" t="s">
         <v>32</v>
       </c>
@@ -3585,7 +3771,7 @@
       </c>
       <c r="AI18" s="73"/>
     </row>
-    <row r="19" spans="1:36" ht="17.100000000000001">
+    <row r="19" spans="1:36" ht="17" x14ac:dyDescent="0.4">
       <c r="A19" s="67" t="s">
         <v>32</v>
       </c>
@@ -3643,7 +3829,7 @@
       </c>
       <c r="AI19" s="73"/>
     </row>
-    <row r="20" spans="1:36" ht="17.100000000000001">
+    <row r="20" spans="1:36" ht="17" x14ac:dyDescent="0.4">
       <c r="A20" s="67" t="s">
         <v>32</v>
       </c>
@@ -3715,7 +3901,7 @@
       </c>
       <c r="AI20" s="73"/>
     </row>
-    <row r="21" spans="1:36" ht="13.5" customHeight="1">
+    <row r="21" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="68"/>
       <c r="B21" s="60"/>
       <c r="C21" s="61"/>
@@ -3752,12 +3938,12 @@
       <c r="AH21" s="62"/>
       <c r="AI21" s="73"/>
     </row>
-    <row r="22" spans="1:36" ht="17.100000000000001">
-      <c r="A22" s="180" t="s">
+    <row r="22" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+      <c r="A22" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="181"/>
-      <c r="C22" s="182"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="153"/>
       <c r="D22" s="57"/>
       <c r="E22" s="57">
         <v>8</v>
@@ -3800,12 +3986,12 @@
       </c>
       <c r="AI22" s="73"/>
     </row>
-    <row r="23" spans="1:36" ht="17.100000000000001">
-      <c r="A23" s="180" t="s">
+    <row r="23" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+      <c r="A23" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="181"/>
-      <c r="C23" s="182"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="153"/>
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="57">
@@ -3844,12 +4030,12 @@
       </c>
       <c r="AI23" s="73"/>
     </row>
-    <row r="24" spans="1:36" ht="17.100000000000001">
-      <c r="A24" s="183" t="s">
+    <row r="24" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+      <c r="A24" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="184"/>
-      <c r="C24" s="185"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="156"/>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="57"/>
@@ -3888,12 +4074,12 @@
       </c>
       <c r="AI24" s="73"/>
     </row>
-    <row r="25" spans="1:36" ht="17.100000000000001">
-      <c r="A25" s="180" t="s">
+    <row r="25" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+      <c r="A25" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="181"/>
-      <c r="C25" s="182"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="153"/>
       <c r="D25" s="57"/>
       <c r="E25" s="57">
         <f t="shared" ref="E25:AB25" si="1">SUM(E11:E20)</f>
@@ -4017,154 +4203,154 @@
       </c>
       <c r="AI25" s="73"/>
     </row>
-    <row r="26" spans="1:36" ht="15" thickBot="1"/>
-    <row r="27" spans="1:36" s="93" customFormat="1" ht="18" customHeight="1">
+    <row r="26" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:36" s="93" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="91"/>
       <c r="B27" s="92" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
-      <c r="S27" s="166" t="s">
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
+      <c r="S27" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="T27" s="167"/>
-      <c r="U27" s="167"/>
-      <c r="V27" s="167"/>
-      <c r="W27" s="167"/>
-      <c r="X27" s="167"/>
-      <c r="Y27" s="167"/>
-      <c r="Z27" s="167"/>
-      <c r="AA27" s="168"/>
-      <c r="AC27" s="174" t="s">
+      <c r="T27" s="180"/>
+      <c r="U27" s="180"/>
+      <c r="V27" s="180"/>
+      <c r="W27" s="180"/>
+      <c r="X27" s="180"/>
+      <c r="Y27" s="180"/>
+      <c r="Z27" s="180"/>
+      <c r="AA27" s="181"/>
+      <c r="AC27" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="AD27" s="175"/>
-      <c r="AE27" s="175"/>
-      <c r="AF27" s="175"/>
-      <c r="AG27" s="175"/>
-      <c r="AH27" s="175"/>
-      <c r="AI27" s="175"/>
-      <c r="AJ27" s="176"/>
-    </row>
-    <row r="28" spans="1:36" ht="15.6" customHeight="1">
+      <c r="AD27" s="188"/>
+      <c r="AE27" s="188"/>
+      <c r="AF27" s="188"/>
+      <c r="AG27" s="188"/>
+      <c r="AH27" s="188"/>
+      <c r="AI27" s="188"/>
+      <c r="AJ27" s="189"/>
+    </row>
+    <row r="28" spans="1:36" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="69"/>
       <c r="B28" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="147"/>
-      <c r="S28" s="157" t="s">
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
+      <c r="S28" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="T28" s="158"/>
-      <c r="U28" s="148" t="s">
+      <c r="T28" s="171"/>
+      <c r="U28" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="V28" s="149"/>
-      <c r="W28" s="149"/>
-      <c r="X28" s="149"/>
-      <c r="Y28" s="149"/>
-      <c r="Z28" s="149"/>
-      <c r="AA28" s="150"/>
-      <c r="AC28" s="163" t="s">
+      <c r="V28" s="162"/>
+      <c r="W28" s="162"/>
+      <c r="X28" s="162"/>
+      <c r="Y28" s="162"/>
+      <c r="Z28" s="162"/>
+      <c r="AA28" s="163"/>
+      <c r="AC28" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="AD28" s="149"/>
-      <c r="AE28" s="149"/>
-      <c r="AF28" s="149"/>
-      <c r="AG28" s="149"/>
-      <c r="AH28" s="149"/>
-      <c r="AI28" s="149"/>
-      <c r="AJ28" s="150"/>
-    </row>
-    <row r="29" spans="1:36" ht="18.600000000000001" customHeight="1">
+      <c r="AD28" s="162"/>
+      <c r="AE28" s="162"/>
+      <c r="AF28" s="162"/>
+      <c r="AG28" s="162"/>
+      <c r="AH28" s="162"/>
+      <c r="AI28" s="162"/>
+      <c r="AJ28" s="163"/>
+    </row>
+    <row r="29" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="70"/>
       <c r="B29" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
-      <c r="S29" s="159"/>
-      <c r="T29" s="160"/>
-      <c r="U29" s="151"/>
-      <c r="V29" s="152"/>
-      <c r="W29" s="152"/>
-      <c r="X29" s="152"/>
-      <c r="Y29" s="152"/>
-      <c r="Z29" s="152"/>
-      <c r="AA29" s="153"/>
-      <c r="AC29" s="164"/>
-      <c r="AD29" s="152"/>
-      <c r="AE29" s="152"/>
-      <c r="AF29" s="152"/>
-      <c r="AG29" s="152"/>
-      <c r="AH29" s="152"/>
-      <c r="AI29" s="152"/>
-      <c r="AJ29" s="153"/>
-    </row>
-    <row r="30" spans="1:36" ht="18.600000000000001" customHeight="1">
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="160"/>
+      <c r="S29" s="172"/>
+      <c r="T29" s="173"/>
+      <c r="U29" s="164"/>
+      <c r="V29" s="165"/>
+      <c r="W29" s="165"/>
+      <c r="X29" s="165"/>
+      <c r="Y29" s="165"/>
+      <c r="Z29" s="165"/>
+      <c r="AA29" s="166"/>
+      <c r="AC29" s="177"/>
+      <c r="AD29" s="165"/>
+      <c r="AE29" s="165"/>
+      <c r="AF29" s="165"/>
+      <c r="AG29" s="165"/>
+      <c r="AH29" s="165"/>
+      <c r="AI29" s="165"/>
+      <c r="AJ29" s="166"/>
+    </row>
+    <row r="30" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="71"/>
       <c r="B30" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="147"/>
-      <c r="S30" s="159"/>
-      <c r="T30" s="160"/>
-      <c r="U30" s="151"/>
-      <c r="V30" s="152"/>
-      <c r="W30" s="152"/>
-      <c r="X30" s="152"/>
-      <c r="Y30" s="152"/>
-      <c r="Z30" s="152"/>
-      <c r="AA30" s="153"/>
-      <c r="AC30" s="164"/>
-      <c r="AD30" s="152"/>
-      <c r="AE30" s="152"/>
-      <c r="AF30" s="152"/>
-      <c r="AG30" s="152"/>
-      <c r="AH30" s="152"/>
-      <c r="AI30" s="152"/>
-      <c r="AJ30" s="153"/>
-    </row>
-    <row r="31" spans="1:36" ht="18.95" customHeight="1">
-      <c r="S31" s="159"/>
-      <c r="T31" s="160"/>
-      <c r="U31" s="151"/>
-      <c r="V31" s="152"/>
-      <c r="W31" s="152"/>
-      <c r="X31" s="152"/>
-      <c r="Y31" s="152"/>
-      <c r="Z31" s="152"/>
-      <c r="AA31" s="153"/>
-      <c r="AC31" s="164"/>
-      <c r="AD31" s="152"/>
-      <c r="AE31" s="152"/>
-      <c r="AF31" s="152"/>
-      <c r="AG31" s="152"/>
-      <c r="AH31" s="152"/>
-      <c r="AI31" s="152"/>
-      <c r="AJ31" s="153"/>
-    </row>
-    <row r="32" spans="1:36" ht="18.600000000000001">
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
+      <c r="S30" s="172"/>
+      <c r="T30" s="173"/>
+      <c r="U30" s="164"/>
+      <c r="V30" s="165"/>
+      <c r="W30" s="165"/>
+      <c r="X30" s="165"/>
+      <c r="Y30" s="165"/>
+      <c r="Z30" s="165"/>
+      <c r="AA30" s="166"/>
+      <c r="AC30" s="177"/>
+      <c r="AD30" s="165"/>
+      <c r="AE30" s="165"/>
+      <c r="AF30" s="165"/>
+      <c r="AG30" s="165"/>
+      <c r="AH30" s="165"/>
+      <c r="AI30" s="165"/>
+      <c r="AJ30" s="166"/>
+    </row>
+    <row r="31" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S31" s="172"/>
+      <c r="T31" s="173"/>
+      <c r="U31" s="164"/>
+      <c r="V31" s="165"/>
+      <c r="W31" s="165"/>
+      <c r="X31" s="165"/>
+      <c r="Y31" s="165"/>
+      <c r="Z31" s="165"/>
+      <c r="AA31" s="166"/>
+      <c r="AC31" s="177"/>
+      <c r="AD31" s="165"/>
+      <c r="AE31" s="165"/>
+      <c r="AF31" s="165"/>
+      <c r="AG31" s="165"/>
+      <c r="AH31" s="165"/>
+      <c r="AI31" s="165"/>
+      <c r="AJ31" s="166"/>
+    </row>
+    <row r="32" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="72" t="s">
         <v>51</v>
       </c>
@@ -4175,29 +4361,29 @@
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
-      <c r="S32" s="169"/>
-      <c r="T32" s="170"/>
-      <c r="U32" s="171"/>
-      <c r="V32" s="172"/>
-      <c r="W32" s="172"/>
-      <c r="X32" s="172"/>
-      <c r="Y32" s="172"/>
-      <c r="Z32" s="172"/>
-      <c r="AA32" s="173"/>
-      <c r="AC32" s="177"/>
-      <c r="AD32" s="172"/>
-      <c r="AE32" s="172"/>
-      <c r="AF32" s="172"/>
-      <c r="AG32" s="172"/>
-      <c r="AH32" s="172"/>
-      <c r="AI32" s="172"/>
-      <c r="AJ32" s="173"/>
-    </row>
-    <row r="33" spans="1:36" ht="18.600000000000001" customHeight="1">
-      <c r="A33" s="144" t="s">
+      <c r="S32" s="182"/>
+      <c r="T32" s="183"/>
+      <c r="U32" s="184"/>
+      <c r="V32" s="185"/>
+      <c r="W32" s="185"/>
+      <c r="X32" s="185"/>
+      <c r="Y32" s="185"/>
+      <c r="Z32" s="185"/>
+      <c r="AA32" s="186"/>
+      <c r="AC32" s="190"/>
+      <c r="AD32" s="185"/>
+      <c r="AE32" s="185"/>
+      <c r="AF32" s="185"/>
+      <c r="AG32" s="185"/>
+      <c r="AH32" s="185"/>
+      <c r="AI32" s="185"/>
+      <c r="AJ32" s="186"/>
+    </row>
+    <row r="33" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="144"/>
+      <c r="B33" s="157"/>
       <c r="C33" s="63">
         <f>COUNTIF(D24:AG24,"=8")</f>
         <v>1</v>
@@ -4207,31 +4393,31 @@
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
-      <c r="S33" s="157" t="s">
+      <c r="S33" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="T33" s="158"/>
-      <c r="U33" s="148" t="s">
+      <c r="T33" s="171"/>
+      <c r="U33" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="V33" s="149"/>
-      <c r="W33" s="149"/>
-      <c r="X33" s="149"/>
-      <c r="Y33" s="149"/>
-      <c r="Z33" s="149"/>
-      <c r="AA33" s="150"/>
-      <c r="AC33" s="163" t="s">
+      <c r="V33" s="162"/>
+      <c r="W33" s="162"/>
+      <c r="X33" s="162"/>
+      <c r="Y33" s="162"/>
+      <c r="Z33" s="162"/>
+      <c r="AA33" s="163"/>
+      <c r="AC33" s="176" t="s">
         <v>55</v>
       </c>
-      <c r="AD33" s="149"/>
-      <c r="AE33" s="149"/>
-      <c r="AF33" s="149"/>
-      <c r="AG33" s="149"/>
-      <c r="AH33" s="149"/>
-      <c r="AI33" s="149"/>
-      <c r="AJ33" s="150"/>
-    </row>
-    <row r="34" spans="1:36" ht="18.600000000000001">
+      <c r="AD33" s="162"/>
+      <c r="AE33" s="162"/>
+      <c r="AF33" s="162"/>
+      <c r="AG33" s="162"/>
+      <c r="AH33" s="162"/>
+      <c r="AI33" s="162"/>
+      <c r="AJ33" s="163"/>
+    </row>
+    <row r="34" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="63" t="s">
         <v>56</v>
       </c>
@@ -4245,25 +4431,25 @@
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
-      <c r="S34" s="159"/>
-      <c r="T34" s="160"/>
-      <c r="U34" s="151"/>
-      <c r="V34" s="152"/>
-      <c r="W34" s="152"/>
-      <c r="X34" s="152"/>
-      <c r="Y34" s="152"/>
-      <c r="Z34" s="152"/>
-      <c r="AA34" s="153"/>
-      <c r="AC34" s="164"/>
-      <c r="AD34" s="152"/>
-      <c r="AE34" s="152"/>
-      <c r="AF34" s="152"/>
-      <c r="AG34" s="152"/>
-      <c r="AH34" s="152"/>
-      <c r="AI34" s="152"/>
-      <c r="AJ34" s="153"/>
-    </row>
-    <row r="35" spans="1:36" ht="18.600000000000001">
+      <c r="S34" s="172"/>
+      <c r="T34" s="173"/>
+      <c r="U34" s="164"/>
+      <c r="V34" s="165"/>
+      <c r="W34" s="165"/>
+      <c r="X34" s="165"/>
+      <c r="Y34" s="165"/>
+      <c r="Z34" s="165"/>
+      <c r="AA34" s="166"/>
+      <c r="AC34" s="177"/>
+      <c r="AD34" s="165"/>
+      <c r="AE34" s="165"/>
+      <c r="AF34" s="165"/>
+      <c r="AG34" s="165"/>
+      <c r="AH34" s="165"/>
+      <c r="AI34" s="165"/>
+      <c r="AJ34" s="166"/>
+    </row>
+    <row r="35" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="63" t="s">
         <v>57</v>
       </c>
@@ -4277,25 +4463,25 @@
       <c r="F35" s="44"/>
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
-      <c r="S35" s="159"/>
-      <c r="T35" s="160"/>
-      <c r="U35" s="151"/>
-      <c r="V35" s="152"/>
-      <c r="W35" s="152"/>
-      <c r="X35" s="152"/>
-      <c r="Y35" s="152"/>
-      <c r="Z35" s="152"/>
-      <c r="AA35" s="153"/>
-      <c r="AC35" s="164"/>
-      <c r="AD35" s="152"/>
-      <c r="AE35" s="152"/>
-      <c r="AF35" s="152"/>
-      <c r="AG35" s="152"/>
-      <c r="AH35" s="152"/>
-      <c r="AI35" s="152"/>
-      <c r="AJ35" s="153"/>
-    </row>
-    <row r="36" spans="1:36" ht="18.600000000000001">
+      <c r="S35" s="172"/>
+      <c r="T35" s="173"/>
+      <c r="U35" s="164"/>
+      <c r="V35" s="165"/>
+      <c r="W35" s="165"/>
+      <c r="X35" s="165"/>
+      <c r="Y35" s="165"/>
+      <c r="Z35" s="165"/>
+      <c r="AA35" s="166"/>
+      <c r="AC35" s="177"/>
+      <c r="AD35" s="165"/>
+      <c r="AE35" s="165"/>
+      <c r="AF35" s="165"/>
+      <c r="AG35" s="165"/>
+      <c r="AH35" s="165"/>
+      <c r="AI35" s="165"/>
+      <c r="AJ35" s="166"/>
+    </row>
+    <row r="36" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A36" s="63" t="s">
         <v>58</v>
       </c>
@@ -4309,29 +4495,29 @@
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
-      <c r="S36" s="159"/>
-      <c r="T36" s="160"/>
-      <c r="U36" s="151"/>
-      <c r="V36" s="152"/>
-      <c r="W36" s="152"/>
-      <c r="X36" s="152"/>
-      <c r="Y36" s="152"/>
-      <c r="Z36" s="152"/>
-      <c r="AA36" s="153"/>
-      <c r="AC36" s="164"/>
-      <c r="AD36" s="152"/>
-      <c r="AE36" s="152"/>
-      <c r="AF36" s="152"/>
-      <c r="AG36" s="152"/>
-      <c r="AH36" s="152"/>
-      <c r="AI36" s="152"/>
-      <c r="AJ36" s="153"/>
-    </row>
-    <row r="37" spans="1:36" ht="38.1" customHeight="1" thickBot="1">
-      <c r="A37" s="178" t="s">
+      <c r="S36" s="172"/>
+      <c r="T36" s="173"/>
+      <c r="U36" s="164"/>
+      <c r="V36" s="165"/>
+      <c r="W36" s="165"/>
+      <c r="X36" s="165"/>
+      <c r="Y36" s="165"/>
+      <c r="Z36" s="165"/>
+      <c r="AA36" s="166"/>
+      <c r="AC36" s="177"/>
+      <c r="AD36" s="165"/>
+      <c r="AE36" s="165"/>
+      <c r="AF36" s="165"/>
+      <c r="AG36" s="165"/>
+      <c r="AH36" s="165"/>
+      <c r="AI36" s="165"/>
+      <c r="AJ36" s="166"/>
+    </row>
+    <row r="37" spans="1:36" ht="38.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="178"/>
+      <c r="B37" s="148"/>
       <c r="C37" s="63">
         <f>COUNTIF(D25:AG25,"&gt;0")</f>
         <v>20</v>
@@ -4341,25 +4527,25 @@
       <c r="F37" s="44"/>
       <c r="G37" s="44"/>
       <c r="H37" s="44"/>
-      <c r="S37" s="161"/>
-      <c r="T37" s="162"/>
-      <c r="U37" s="154"/>
-      <c r="V37" s="155"/>
-      <c r="W37" s="155"/>
-      <c r="X37" s="155"/>
-      <c r="Y37" s="155"/>
-      <c r="Z37" s="155"/>
-      <c r="AA37" s="156"/>
-      <c r="AC37" s="165"/>
-      <c r="AD37" s="155"/>
-      <c r="AE37" s="155"/>
-      <c r="AF37" s="155"/>
-      <c r="AG37" s="155"/>
-      <c r="AH37" s="155"/>
-      <c r="AI37" s="155"/>
-      <c r="AJ37" s="156"/>
-    </row>
-    <row r="38" spans="1:36" ht="18.600000000000001">
+      <c r="S37" s="174"/>
+      <c r="T37" s="175"/>
+      <c r="U37" s="167"/>
+      <c r="V37" s="168"/>
+      <c r="W37" s="168"/>
+      <c r="X37" s="168"/>
+      <c r="Y37" s="168"/>
+      <c r="Z37" s="168"/>
+      <c r="AA37" s="169"/>
+      <c r="AC37" s="178"/>
+      <c r="AD37" s="168"/>
+      <c r="AE37" s="168"/>
+      <c r="AF37" s="168"/>
+      <c r="AG37" s="168"/>
+      <c r="AH37" s="168"/>
+      <c r="AI37" s="168"/>
+      <c r="AJ37" s="169"/>
+    </row>
+    <row r="38" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A38" s="63" t="s">
         <v>60</v>
       </c>
@@ -4374,7 +4560,7 @@
       <c r="G38" s="44"/>
       <c r="H38" s="44"/>
     </row>
-    <row r="39" spans="1:36" ht="18.600000000000001">
+    <row r="39" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A39" s="63"/>
       <c r="B39" s="47"/>
       <c r="C39" s="63"/>
@@ -4384,7 +4570,7 @@
       <c r="G39" s="44"/>
       <c r="H39" s="44"/>
     </row>
-    <row r="40" spans="1:36" ht="18.600000000000001">
+    <row r="40" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40" s="72" t="s">
         <v>61</v>
       </c>
@@ -4396,11 +4582,11 @@
       <c r="G40" s="44"/>
       <c r="H40" s="44"/>
     </row>
-    <row r="41" spans="1:36" ht="35.450000000000003" customHeight="1">
-      <c r="A41" s="178" t="s">
+    <row r="41" spans="1:36" ht="35.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="178"/>
+      <c r="B41" s="148"/>
       <c r="C41" s="63">
         <f>AH25</f>
         <v>160</v>
@@ -4411,11 +4597,11 @@
       <c r="G41" s="44"/>
       <c r="H41" s="44"/>
     </row>
-    <row r="42" spans="1:36" ht="38.1" customHeight="1">
-      <c r="A42" s="178" t="s">
+    <row r="42" spans="1:36" ht="38.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="178"/>
+      <c r="B42" s="148"/>
       <c r="C42" s="63">
         <v>45</v>
       </c>
@@ -4425,7 +4611,7 @@
       <c r="G42" s="44"/>
       <c r="H42" s="44"/>
     </row>
-    <row r="43" spans="1:36" ht="18.600000000000001">
+    <row r="43" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A43" s="63" t="s">
         <v>64</v>
       </c>
@@ -4440,7 +4626,7 @@
       <c r="G43" s="44"/>
       <c r="H43" s="44"/>
     </row>
-    <row r="44" spans="1:36" ht="18.600000000000001">
+    <row r="44" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A44" s="63" t="s">
         <v>65</v>
       </c>
@@ -4457,7 +4643,7 @@
       <c r="I44" s="44"/>
       <c r="J44" s="44"/>
     </row>
-    <row r="45" spans="1:36" ht="18.600000000000001">
+    <row r="45" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A45" s="63" t="s">
         <v>66</v>
       </c>
@@ -4474,7 +4660,7 @@
       <c r="I45" s="44"/>
       <c r="J45" s="44"/>
     </row>
-    <row r="46" spans="1:36" ht="18.600000000000001">
+    <row r="46" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A46" s="63"/>
       <c r="B46" s="47"/>
       <c r="C46" s="63"/>
@@ -4486,7 +4672,7 @@
       <c r="I46" s="44"/>
       <c r="J46" s="44"/>
     </row>
-    <row r="47" spans="1:36" ht="18.600000000000001">
+    <row r="47" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A47" s="72" t="s">
         <v>67</v>
       </c>
@@ -4500,7 +4686,7 @@
       <c r="I47" s="44"/>
       <c r="J47" s="44"/>
     </row>
-    <row r="48" spans="1:36" ht="18.600000000000001">
+    <row r="48" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A48" s="63" t="s">
         <v>68</v>
       </c>
@@ -4514,7 +4700,7 @@
       <c r="I48" s="44"/>
       <c r="J48" s="44"/>
     </row>
-    <row r="49" spans="1:10" ht="18.600000000000001">
+    <row r="49" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A49" s="63" t="s">
         <v>69</v>
       </c>
@@ -4528,7 +4714,7 @@
       <c r="I49" s="44"/>
       <c r="J49" s="44"/>
     </row>
-    <row r="50" spans="1:10" ht="18.600000000000001">
+    <row r="50" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A50" s="63"/>
       <c r="B50" s="47"/>
       <c r="C50" s="63"/>
@@ -4540,19 +4726,10 @@
       <c r="I50" s="44"/>
       <c r="J50" s="44"/>
     </row>
-    <row r="52" spans="1:10" ht="155.44999999999999" customHeight="1"/>
-    <row r="53" spans="1:10" ht="168.95" customHeight="1"/>
+    <row r="52" spans="1:10" ht="155.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:10" ht="169" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="C9:C10"/>
     <mergeCell ref="AH9:AH10"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="N6:Q6"/>
@@ -4567,6 +4744,15 @@
     <mergeCell ref="AC27:AJ27"/>
     <mergeCell ref="AC28:AJ32"/>
     <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="expression" dxfId="11" priority="26">
@@ -4609,30 +4795,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA136F23-B726-450C-8838-7114D5303DC9}">
-  <dimension ref="A1:AI200"/>
+  <dimension ref="A1:AI198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.140625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="4" customWidth="1"/>
-    <col min="5" max="7" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.1796875" style="42" customWidth="1"/>
+    <col min="2" max="2" width="37.1796875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" style="4" customWidth="1"/>
+    <col min="5" max="7" width="7.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.54296875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="4" customWidth="1"/>
-    <col min="13" max="33" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.140625" style="4" customWidth="1"/>
-    <col min="35" max="35" width="11.5703125" style="4" customWidth="1"/>
-    <col min="36" max="16384" width="8.7109375" style="4"/>
+    <col min="12" max="12" width="8.1796875" style="4" customWidth="1"/>
+    <col min="13" max="33" width="7.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.1796875" style="4" customWidth="1"/>
+    <col min="35" max="35" width="11.54296875" style="4" customWidth="1"/>
+    <col min="36" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="17.100000000000001">
+    <row r="1" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -4655,7 +4841,7 @@
       <c r="P1" s="78"/>
       <c r="Q1" s="78"/>
     </row>
-    <row r="2" spans="1:35" ht="17.100000000000001">
+    <row r="2" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A2" s="76" t="s">
         <v>2</v>
       </c>
@@ -4680,7 +4866,7 @@
       <c r="P2" s="78"/>
       <c r="Q2" s="78"/>
     </row>
-    <row r="3" spans="1:35" ht="17.100000000000001">
+    <row r="3" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A3" s="76" t="s">
         <v>4</v>
       </c>
@@ -4705,7 +4891,7 @@
       <c r="P3" s="78"/>
       <c r="Q3" s="78"/>
     </row>
-    <row r="4" spans="1:35" ht="17.100000000000001">
+    <row r="4" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A4" s="76"/>
       <c r="B4" s="81"/>
       <c r="C4" s="76"/>
@@ -4724,7 +4910,7 @@
       <c r="P4" s="78"/>
       <c r="Q4" s="78"/>
     </row>
-    <row r="5" spans="1:35" ht="17.100000000000001">
+    <row r="5" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A5" s="74" t="s">
         <v>6</v>
       </c>
@@ -4747,14 +4933,14 @@
       </c>
       <c r="L5" s="78"/>
       <c r="M5" s="78"/>
-      <c r="N5" s="146" t="s">
+      <c r="N5" s="159" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="146"/>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="146"/>
-    </row>
-    <row r="6" spans="1:35" ht="17.100000000000001">
+      <c r="O5" s="159"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="159"/>
+    </row>
+    <row r="6" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A6" s="74" t="s">
         <v>12</v>
       </c>
@@ -4777,15 +4963,15 @@
       </c>
       <c r="L6" s="87"/>
       <c r="M6" s="76"/>
-      <c r="N6" s="145" t="s">
+      <c r="N6" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="O6" s="145"/>
-      <c r="P6" s="145"/>
-      <c r="Q6" s="145"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="158"/>
+      <c r="Q6" s="158"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:35" s="42" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:35" s="42" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="74" t="s">
         <v>18</v>
       </c>
@@ -4804,14 +4990,14 @@
       <c r="P7" s="76"/>
       <c r="Q7" s="76"/>
     </row>
-    <row r="9" spans="1:35" ht="17.100000000000001">
-      <c r="A9" s="179" t="s">
+    <row r="9" spans="1:35" ht="17" x14ac:dyDescent="0.35">
+      <c r="A9" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="179" t="s">
+      <c r="C9" s="149" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="50" t="str">
@@ -4934,17 +5120,17 @@
         <f t="shared" si="0"/>
         <v>Sat</v>
       </c>
-      <c r="AH9" s="143" t="s">
+      <c r="AH9" s="150" t="s">
         <v>23</v>
       </c>
       <c r="AI9" s="90" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="17.100000000000001">
-      <c r="A10" s="179"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="179"/>
+    <row r="10" spans="1:35" ht="17" x14ac:dyDescent="0.35">
+      <c r="A10" s="149"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="149"/>
       <c r="D10" s="51" cm="1">
         <f t="array" ref="D10:AG10">IFERROR(IF(OR((B3-B2+1)&gt;31,B2="",B3=""),"",_xlfn.SEQUENCE(,B3-B2+1,B2)),"")</f>
         <v>45555</v>
@@ -5036,10 +5222,10 @@
       <c r="AG10" s="51">
         <v>45584</v>
       </c>
-      <c r="AH10" s="143"/>
+      <c r="AH10" s="150"/>
       <c r="AI10" s="90"/>
     </row>
-    <row r="11" spans="1:35" ht="17.100000000000001">
+    <row r="11" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A11" s="66" t="s">
         <v>25</v>
       </c>
@@ -5078,12 +5264,12 @@
       <c r="AH11" s="55"/>
       <c r="AI11" s="73"/>
     </row>
-    <row r="12" spans="1:35" ht="51">
+    <row r="12" spans="1:35" ht="51" x14ac:dyDescent="0.4">
       <c r="A12" s="88" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="89" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57">
@@ -5091,15 +5277,19 @@
       </c>
       <c r="E12" s="57"/>
       <c r="F12" s="57"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="57"/>
+      <c r="G12" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="57">
+        <v>0.5</v>
+      </c>
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
       <c r="L12" s="50"/>
       <c r="M12" s="50"/>
       <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
+      <c r="O12" s="211"/>
       <c r="P12" s="50"/>
       <c r="Q12" s="50"/>
       <c r="R12" s="50"/>
@@ -5120,24 +5310,26 @@
       <c r="AG12" s="57"/>
       <c r="AH12" s="58">
         <f t="shared" ref="AH12:AH75" si="1">SUM(D12:AG12)</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AI12" s="73"/>
     </row>
-    <row r="13" spans="1:35" ht="51">
+    <row r="13" spans="1:35" ht="34" x14ac:dyDescent="0.4">
       <c r="A13" s="88" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="C13" s="57"/>
       <c r="D13" s="57">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="57"/>
       <c r="F13" s="57"/>
-      <c r="G13" s="50"/>
+      <c r="G13" s="50">
+        <v>0.5</v>
+      </c>
       <c r="H13" s="57"/>
       <c r="I13" s="50"/>
       <c r="J13" s="50"/>
@@ -5145,7 +5337,7 @@
       <c r="L13" s="50"/>
       <c r="M13" s="50"/>
       <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
+      <c r="O13" s="211"/>
       <c r="P13" s="50"/>
       <c r="Q13" s="50"/>
       <c r="R13" s="50"/>
@@ -5170,12 +5362,12 @@
       </c>
       <c r="AI13" s="73"/>
     </row>
-    <row r="14" spans="1:35" ht="34.5">
+    <row r="14" spans="1:35" ht="51" x14ac:dyDescent="0.4">
       <c r="A14" s="88" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="C14" s="57"/>
       <c r="D14" s="57">
@@ -5183,9 +5375,15 @@
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="57"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="50"/>
+      <c r="G14" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="50">
+        <v>0.5</v>
+      </c>
       <c r="J14" s="50"/>
       <c r="K14" s="50"/>
       <c r="L14" s="50"/>
@@ -5212,16 +5410,16 @@
       <c r="AG14" s="57"/>
       <c r="AH14" s="58">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AI14" s="73"/>
     </row>
-    <row r="15" spans="1:35" ht="17.25">
+    <row r="15" spans="1:35" ht="51" x14ac:dyDescent="0.4">
       <c r="A15" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="B15" s="210" t="s">
+        <v>175</v>
       </c>
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
@@ -5229,9 +5427,15 @@
       <c r="F15" s="57"/>
       <c r="G15" s="50"/>
       <c r="H15" s="57"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="I15" s="50">
+        <v>1</v>
+      </c>
+      <c r="J15" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="50">
+        <v>0.5</v>
+      </c>
       <c r="L15" s="50"/>
       <c r="M15" s="50"/>
       <c r="N15" s="50"/>
@@ -5256,15 +5460,17 @@
       <c r="AG15" s="57"/>
       <c r="AH15" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI15" s="73"/>
     </row>
-    <row r="16" spans="1:35" ht="17.25">
-      <c r="A16" s="205" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="81"/>
+    <row r="16" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A16" s="144" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="81" t="s">
+        <v>176</v>
+      </c>
       <c r="C16" s="57"/>
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
@@ -5272,12 +5478,20 @@
       <c r="G16" s="50"/>
       <c r="H16" s="57"/>
       <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
+      <c r="J16" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="50">
+        <v>0.5</v>
+      </c>
       <c r="L16" s="50"/>
       <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
+      <c r="N16" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="O16" s="50">
+        <v>0.5</v>
+      </c>
       <c r="P16" s="50"/>
       <c r="Q16" s="50"/>
       <c r="R16" s="50"/>
@@ -5298,13 +5512,17 @@
       <c r="AG16" s="57"/>
       <c r="AH16" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI16" s="73"/>
     </row>
-    <row r="17" spans="1:35" ht="17.25">
-      <c r="A17" s="204"/>
-      <c r="B17" s="139"/>
+    <row r="17" spans="1:35" ht="68" x14ac:dyDescent="0.4">
+      <c r="A17" s="143" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="139" t="s">
+        <v>177</v>
+      </c>
       <c r="C17" s="141"/>
       <c r="D17" s="57"/>
       <c r="E17" s="57"/>
@@ -5316,8 +5534,12 @@
       <c r="K17" s="50"/>
       <c r="L17" s="50"/>
       <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
+      <c r="N17" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="O17" s="50">
+        <v>0.5</v>
+      </c>
       <c r="P17" s="50"/>
       <c r="Q17" s="50"/>
       <c r="R17" s="50"/>
@@ -5338,58 +5560,60 @@
       <c r="AG17" s="57"/>
       <c r="AH17" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" s="73"/>
     </row>
-    <row r="18" spans="1:35" ht="17.25">
-      <c r="A18" s="204"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57"/>
-      <c r="AH18" s="58">
+    <row r="18" spans="1:35" s="217" customFormat="1" ht="17" x14ac:dyDescent="0.4">
+      <c r="A18" s="212" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="213"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="209"/>
+      <c r="K18" s="209"/>
+      <c r="L18" s="209"/>
+      <c r="M18" s="209"/>
+      <c r="N18" s="209"/>
+      <c r="O18" s="209"/>
+      <c r="P18" s="209"/>
+      <c r="Q18" s="209"/>
+      <c r="R18" s="209"/>
+      <c r="S18" s="209"/>
+      <c r="T18" s="209"/>
+      <c r="U18" s="209"/>
+      <c r="V18" s="209"/>
+      <c r="W18" s="209"/>
+      <c r="X18" s="209"/>
+      <c r="Y18" s="209"/>
+      <c r="Z18" s="209"/>
+      <c r="AA18" s="209"/>
+      <c r="AB18" s="209"/>
+      <c r="AC18" s="209"/>
+      <c r="AD18" s="209"/>
+      <c r="AE18" s="209"/>
+      <c r="AF18" s="209"/>
+      <c r="AG18" s="209"/>
+      <c r="AH18" s="215">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI18" s="73"/>
-    </row>
-    <row r="19" spans="1:35" ht="17.25">
-      <c r="A19" s="204"/>
-      <c r="B19" s="139" t="s">
-        <v>82</v>
+      <c r="AI18" s="216"/>
+    </row>
+    <row r="19" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A19" s="143"/>
+      <c r="B19" s="218" t="s">
+        <v>179</v>
       </c>
       <c r="C19" s="141"/>
       <c r="D19" s="57">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
@@ -5401,7 +5625,7 @@
       <c r="L19" s="50"/>
       <c r="M19" s="50"/>
       <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
+      <c r="O19" s="211"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
@@ -5422,17 +5646,19 @@
       <c r="AG19" s="57"/>
       <c r="AH19" s="58">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AI19" s="73"/>
     </row>
-    <row r="20" spans="1:35" ht="17.25">
-      <c r="A20" s="204"/>
-      <c r="B20" s="139" t="s">
-        <v>82</v>
+    <row r="20" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A20" s="143"/>
+      <c r="B20" s="218" t="s">
+        <v>182</v>
       </c>
       <c r="C20" s="141"/>
-      <c r="D20" s="57"/>
+      <c r="D20" s="57">
+        <v>1</v>
+      </c>
       <c r="E20" s="57"/>
       <c r="F20" s="57"/>
       <c r="G20" s="50"/>
@@ -5443,7 +5669,7 @@
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
       <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
+      <c r="O20" s="211"/>
       <c r="P20" s="50"/>
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
@@ -5464,15 +5690,19 @@
       <c r="AG20" s="57"/>
       <c r="AH20" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20" s="73"/>
     </row>
-    <row r="21" spans="1:35" ht="17.25">
-      <c r="A21" s="204"/>
-      <c r="B21" s="139"/>
+    <row r="21" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A21" s="143"/>
+      <c r="B21" s="218" t="s">
+        <v>183</v>
+      </c>
       <c r="C21" s="141"/>
-      <c r="D21" s="57"/>
+      <c r="D21" s="57">
+        <v>1</v>
+      </c>
       <c r="E21" s="57"/>
       <c r="F21" s="57"/>
       <c r="G21" s="50"/>
@@ -5483,7 +5713,7 @@
       <c r="L21" s="50"/>
       <c r="M21" s="50"/>
       <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
+      <c r="O21" s="211"/>
       <c r="P21" s="50"/>
       <c r="Q21" s="50"/>
       <c r="R21" s="50"/>
@@ -5504,15 +5734,19 @@
       <c r="AG21" s="57"/>
       <c r="AH21" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21" s="73"/>
     </row>
-    <row r="22" spans="1:35" ht="17.25">
-      <c r="A22" s="204"/>
-      <c r="B22" s="139"/>
+    <row r="22" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A22" s="143"/>
+      <c r="B22" s="218" t="s">
+        <v>184</v>
+      </c>
       <c r="C22" s="141"/>
-      <c r="D22" s="57"/>
+      <c r="D22" s="57">
+        <v>1</v>
+      </c>
       <c r="E22" s="57"/>
       <c r="F22" s="57"/>
       <c r="G22" s="50"/>
@@ -5523,7 +5757,7 @@
       <c r="L22" s="50"/>
       <c r="M22" s="50"/>
       <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
+      <c r="O22" s="211"/>
       <c r="P22" s="50"/>
       <c r="Q22" s="50"/>
       <c r="R22" s="50"/>
@@ -5544,15 +5778,19 @@
       <c r="AG22" s="57"/>
       <c r="AH22" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22" s="73"/>
     </row>
-    <row r="23" spans="1:35" ht="17.25">
-      <c r="A23" s="204"/>
-      <c r="B23" s="139"/>
+    <row r="23" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A23" s="143"/>
+      <c r="B23" s="218" t="s">
+        <v>185</v>
+      </c>
       <c r="C23" s="141"/>
-      <c r="D23" s="57"/>
+      <c r="D23" s="57">
+        <v>1</v>
+      </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
       <c r="G23" s="50"/>
@@ -5563,7 +5801,7 @@
       <c r="L23" s="50"/>
       <c r="M23" s="50"/>
       <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
+      <c r="O23" s="211"/>
       <c r="P23" s="50"/>
       <c r="Q23" s="50"/>
       <c r="R23" s="50"/>
@@ -5584,18 +5822,22 @@
       <c r="AG23" s="57"/>
       <c r="AH23" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI23" s="73"/>
     </row>
-    <row r="24" spans="1:35" ht="17.25">
-      <c r="A24" s="204"/>
-      <c r="B24" s="139"/>
+    <row r="24" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A24" s="143"/>
+      <c r="B24" s="218" t="s">
+        <v>186</v>
+      </c>
       <c r="C24" s="141"/>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="57"/>
-      <c r="G24" s="50"/>
+      <c r="G24" s="50">
+        <v>1</v>
+      </c>
       <c r="H24" s="57"/>
       <c r="I24" s="50"/>
       <c r="J24" s="50"/>
@@ -5603,7 +5845,7 @@
       <c r="L24" s="50"/>
       <c r="M24" s="50"/>
       <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
+      <c r="O24" s="211"/>
       <c r="P24" s="50"/>
       <c r="Q24" s="50"/>
       <c r="R24" s="50"/>
@@ -5624,18 +5866,22 @@
       <c r="AG24" s="57"/>
       <c r="AH24" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24" s="73"/>
     </row>
-    <row r="25" spans="1:35" ht="17.25">
-      <c r="A25" s="204"/>
-      <c r="B25" s="139"/>
+    <row r="25" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A25" s="143"/>
+      <c r="B25" s="218" t="s">
+        <v>187</v>
+      </c>
       <c r="C25" s="141"/>
       <c r="D25" s="57"/>
       <c r="E25" s="57"/>
       <c r="F25" s="57"/>
-      <c r="G25" s="50"/>
+      <c r="G25" s="50">
+        <v>1</v>
+      </c>
       <c r="H25" s="57"/>
       <c r="I25" s="50"/>
       <c r="J25" s="50"/>
@@ -5643,7 +5889,7 @@
       <c r="L25" s="50"/>
       <c r="M25" s="50"/>
       <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
+      <c r="O25" s="211"/>
       <c r="P25" s="50"/>
       <c r="Q25" s="50"/>
       <c r="R25" s="50"/>
@@ -5664,18 +5910,22 @@
       <c r="AG25" s="57"/>
       <c r="AH25" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25" s="73"/>
     </row>
-    <row r="26" spans="1:35" ht="17.25">
-      <c r="A26" s="204"/>
-      <c r="B26" s="139"/>
+    <row r="26" spans="1:35" ht="68" x14ac:dyDescent="0.4">
+      <c r="A26" s="143"/>
+      <c r="B26" s="218" t="s">
+        <v>188</v>
+      </c>
       <c r="C26" s="141"/>
       <c r="D26" s="57"/>
       <c r="E26" s="57"/>
       <c r="F26" s="57"/>
-      <c r="G26" s="50"/>
+      <c r="G26" s="50">
+        <v>1.5</v>
+      </c>
       <c r="H26" s="57"/>
       <c r="I26" s="50"/>
       <c r="J26" s="50"/>
@@ -5683,7 +5933,7 @@
       <c r="L26" s="50"/>
       <c r="M26" s="50"/>
       <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
+      <c r="O26" s="211"/>
       <c r="P26" s="50"/>
       <c r="Q26" s="50"/>
       <c r="R26" s="50"/>
@@ -5704,18 +5954,22 @@
       <c r="AG26" s="57"/>
       <c r="AH26" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AI26" s="73"/>
     </row>
-    <row r="27" spans="1:35" ht="17.25">
-      <c r="A27" s="204"/>
-      <c r="B27" s="139"/>
+    <row r="27" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A27" s="143"/>
+      <c r="B27" s="218" t="s">
+        <v>189</v>
+      </c>
       <c r="C27" s="141"/>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
       <c r="F27" s="57"/>
-      <c r="G27" s="50"/>
+      <c r="G27" s="50">
+        <v>0.5</v>
+      </c>
       <c r="H27" s="57"/>
       <c r="I27" s="50"/>
       <c r="J27" s="50"/>
@@ -5723,7 +5977,7 @@
       <c r="L27" s="50"/>
       <c r="M27" s="50"/>
       <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
+      <c r="O27" s="211"/>
       <c r="P27" s="50"/>
       <c r="Q27" s="50"/>
       <c r="R27" s="50"/>
@@ -5744,18 +5998,22 @@
       <c r="AG27" s="57"/>
       <c r="AH27" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI27" s="73"/>
     </row>
-    <row r="28" spans="1:35" ht="17.25">
-      <c r="A28" s="204"/>
-      <c r="B28" s="139"/>
+    <row r="28" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A28" s="143"/>
+      <c r="B28" s="218" t="s">
+        <v>190</v>
+      </c>
       <c r="C28" s="141"/>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
       <c r="F28" s="57"/>
-      <c r="G28" s="50"/>
+      <c r="G28" s="50">
+        <v>1.5</v>
+      </c>
       <c r="H28" s="57"/>
       <c r="I28" s="50"/>
       <c r="J28" s="50"/>
@@ -5763,7 +6021,7 @@
       <c r="L28" s="50"/>
       <c r="M28" s="50"/>
       <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
+      <c r="O28" s="211"/>
       <c r="P28" s="50"/>
       <c r="Q28" s="50"/>
       <c r="R28" s="50"/>
@@ -5784,26 +6042,32 @@
       <c r="AG28" s="57"/>
       <c r="AH28" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AI28" s="73"/>
     </row>
-    <row r="29" spans="1:35" ht="17.25">
-      <c r="A29" s="204"/>
-      <c r="B29" s="139"/>
+    <row r="29" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A29" s="143"/>
+      <c r="B29" s="218" t="s">
+        <v>191</v>
+      </c>
       <c r="C29" s="141"/>
       <c r="D29" s="57"/>
       <c r="E29" s="57"/>
       <c r="F29" s="57"/>
       <c r="G29" s="50"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="50"/>
+      <c r="H29" s="57">
+        <v>3.5</v>
+      </c>
+      <c r="I29" s="50">
+        <v>0.5</v>
+      </c>
       <c r="J29" s="50"/>
       <c r="K29" s="50"/>
       <c r="L29" s="50"/>
       <c r="M29" s="50"/>
       <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
+      <c r="O29" s="211"/>
       <c r="P29" s="50"/>
       <c r="Q29" s="50"/>
       <c r="R29" s="50"/>
@@ -5824,26 +6088,30 @@
       <c r="AG29" s="57"/>
       <c r="AH29" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI29" s="73"/>
     </row>
-    <row r="30" spans="1:35" ht="17.25">
-      <c r="A30" s="204"/>
-      <c r="B30" s="139"/>
+    <row r="30" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A30" s="143"/>
+      <c r="B30" s="218" t="s">
+        <v>192</v>
+      </c>
       <c r="C30" s="141"/>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
       <c r="F30" s="57"/>
       <c r="G30" s="50"/>
-      <c r="H30" s="57"/>
+      <c r="H30" s="57">
+        <v>1</v>
+      </c>
       <c r="I30" s="50"/>
       <c r="J30" s="50"/>
       <c r="K30" s="50"/>
       <c r="L30" s="50"/>
       <c r="M30" s="50"/>
       <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
+      <c r="O30" s="211"/>
       <c r="P30" s="50"/>
       <c r="Q30" s="50"/>
       <c r="R30" s="50"/>
@@ -5864,26 +6132,30 @@
       <c r="AG30" s="57"/>
       <c r="AH30" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI30" s="73"/>
     </row>
-    <row r="31" spans="1:35" ht="17.25">
-      <c r="A31" s="204"/>
-      <c r="B31" s="139"/>
+    <row r="31" spans="1:35" ht="34" x14ac:dyDescent="0.4">
+      <c r="A31" s="143"/>
+      <c r="B31" s="218" t="s">
+        <v>193</v>
+      </c>
       <c r="C31" s="141"/>
       <c r="D31" s="57"/>
       <c r="E31" s="57"/>
       <c r="F31" s="57"/>
       <c r="G31" s="50"/>
-      <c r="H31" s="57"/>
+      <c r="H31" s="57">
+        <v>1</v>
+      </c>
       <c r="I31" s="50"/>
       <c r="J31" s="50"/>
       <c r="K31" s="50"/>
       <c r="L31" s="50"/>
       <c r="M31" s="50"/>
       <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
+      <c r="O31" s="211"/>
       <c r="P31" s="50"/>
       <c r="Q31" s="50"/>
       <c r="R31" s="50"/>
@@ -5904,26 +6176,30 @@
       <c r="AG31" s="57"/>
       <c r="AH31" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI31" s="73"/>
     </row>
-    <row r="32" spans="1:35" ht="17.25">
-      <c r="A32" s="204"/>
-      <c r="B32" s="139"/>
+    <row r="32" spans="1:35" ht="34" x14ac:dyDescent="0.4">
+      <c r="A32" s="143"/>
+      <c r="B32" s="218" t="s">
+        <v>194</v>
+      </c>
       <c r="C32" s="141"/>
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="57"/>
       <c r="G32" s="50"/>
-      <c r="H32" s="57"/>
+      <c r="H32" s="57">
+        <v>0.5</v>
+      </c>
       <c r="I32" s="50"/>
       <c r="J32" s="50"/>
       <c r="K32" s="50"/>
       <c r="L32" s="50"/>
       <c r="M32" s="50"/>
       <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
+      <c r="O32" s="211"/>
       <c r="P32" s="50"/>
       <c r="Q32" s="50"/>
       <c r="R32" s="50"/>
@@ -5944,26 +6220,30 @@
       <c r="AG32" s="57"/>
       <c r="AH32" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI32" s="73"/>
     </row>
-    <row r="33" spans="1:35" ht="17.25">
-      <c r="A33" s="204"/>
-      <c r="B33" s="139"/>
+    <row r="33" spans="1:35" ht="68" x14ac:dyDescent="0.4">
+      <c r="A33" s="143"/>
+      <c r="B33" s="218" t="s">
+        <v>198</v>
+      </c>
       <c r="C33" s="141"/>
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
       <c r="F33" s="57"/>
       <c r="G33" s="50"/>
       <c r="H33" s="57"/>
-      <c r="I33" s="50"/>
+      <c r="I33" s="50">
+        <v>1.5</v>
+      </c>
       <c r="J33" s="50"/>
       <c r="K33" s="50"/>
       <c r="L33" s="50"/>
       <c r="M33" s="50"/>
       <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
+      <c r="O33" s="211"/>
       <c r="P33" s="50"/>
       <c r="Q33" s="50"/>
       <c r="R33" s="50"/>
@@ -5984,26 +6264,30 @@
       <c r="AG33" s="57"/>
       <c r="AH33" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AI33" s="73"/>
     </row>
-    <row r="34" spans="1:35" ht="17.25">
-      <c r="A34" s="204"/>
-      <c r="B34" s="139"/>
+    <row r="34" spans="1:35" ht="68" x14ac:dyDescent="0.4">
+      <c r="A34" s="143"/>
+      <c r="B34" s="218" t="s">
+        <v>199</v>
+      </c>
       <c r="C34" s="141"/>
       <c r="D34" s="57"/>
       <c r="E34" s="57"/>
       <c r="F34" s="57"/>
       <c r="G34" s="50"/>
       <c r="H34" s="57"/>
-      <c r="I34" s="50"/>
+      <c r="I34" s="50">
+        <v>0.5</v>
+      </c>
       <c r="J34" s="50"/>
       <c r="K34" s="50"/>
       <c r="L34" s="50"/>
       <c r="M34" s="50"/>
       <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
+      <c r="O34" s="211"/>
       <c r="P34" s="50"/>
       <c r="Q34" s="50"/>
       <c r="R34" s="50"/>
@@ -6024,26 +6308,30 @@
       <c r="AG34" s="57"/>
       <c r="AH34" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI34" s="73"/>
     </row>
-    <row r="35" spans="1:35" ht="17.25">
-      <c r="A35" s="204"/>
-      <c r="B35" s="139"/>
+    <row r="35" spans="1:35" ht="68" x14ac:dyDescent="0.4">
+      <c r="A35" s="143"/>
+      <c r="B35" s="218" t="s">
+        <v>200</v>
+      </c>
       <c r="C35" s="141"/>
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
       <c r="F35" s="57"/>
       <c r="G35" s="50"/>
       <c r="H35" s="57"/>
-      <c r="I35" s="50"/>
+      <c r="I35" s="50">
+        <v>1</v>
+      </c>
       <c r="J35" s="50"/>
       <c r="K35" s="50"/>
       <c r="L35" s="50"/>
       <c r="M35" s="50"/>
       <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
+      <c r="O35" s="211"/>
       <c r="P35" s="50"/>
       <c r="Q35" s="50"/>
       <c r="R35" s="50"/>
@@ -6064,26 +6352,30 @@
       <c r="AG35" s="57"/>
       <c r="AH35" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI35" s="73"/>
     </row>
-    <row r="36" spans="1:35" ht="17.25">
-      <c r="A36" s="204"/>
-      <c r="B36" s="139"/>
+    <row r="36" spans="1:35" ht="34" x14ac:dyDescent="0.4">
+      <c r="A36" s="143"/>
+      <c r="B36" s="218" t="s">
+        <v>201</v>
+      </c>
       <c r="C36" s="141"/>
       <c r="D36" s="57"/>
       <c r="E36" s="57"/>
       <c r="F36" s="57"/>
       <c r="G36" s="50"/>
       <c r="H36" s="57"/>
-      <c r="I36" s="50"/>
+      <c r="I36" s="50">
+        <v>0.5</v>
+      </c>
       <c r="J36" s="50"/>
       <c r="K36" s="50"/>
       <c r="L36" s="50"/>
       <c r="M36" s="50"/>
       <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
+      <c r="O36" s="211"/>
       <c r="P36" s="50"/>
       <c r="Q36" s="50"/>
       <c r="R36" s="50"/>
@@ -6104,26 +6396,32 @@
       <c r="AG36" s="57"/>
       <c r="AH36" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI36" s="73"/>
     </row>
-    <row r="37" spans="1:35" ht="17.25">
-      <c r="A37" s="204"/>
-      <c r="B37" s="139"/>
+    <row r="37" spans="1:35" ht="68" x14ac:dyDescent="0.4">
+      <c r="A37" s="143"/>
+      <c r="B37" s="218" t="s">
+        <v>202</v>
+      </c>
       <c r="C37" s="141"/>
       <c r="D37" s="57"/>
       <c r="E37" s="57"/>
       <c r="F37" s="57"/>
       <c r="G37" s="50"/>
       <c r="H37" s="57"/>
-      <c r="I37" s="50"/>
+      <c r="I37" s="50">
+        <v>1.5</v>
+      </c>
       <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
+      <c r="K37" s="50">
+        <v>1</v>
+      </c>
       <c r="L37" s="50"/>
       <c r="M37" s="50"/>
       <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
+      <c r="O37" s="211"/>
       <c r="P37" s="50"/>
       <c r="Q37" s="50"/>
       <c r="R37" s="50"/>
@@ -6144,13 +6442,15 @@
       <c r="AG37" s="57"/>
       <c r="AH37" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI37" s="73"/>
     </row>
-    <row r="38" spans="1:35" ht="17.25">
-      <c r="A38" s="204"/>
-      <c r="B38" s="139"/>
+    <row r="38" spans="1:35" ht="34" x14ac:dyDescent="0.4">
+      <c r="A38" s="143"/>
+      <c r="B38" s="218" t="s">
+        <v>203</v>
+      </c>
       <c r="C38" s="141"/>
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
@@ -6158,12 +6458,16 @@
       <c r="G38" s="50"/>
       <c r="H38" s="57"/>
       <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
+      <c r="J38" s="50">
+        <v>0.5</v>
+      </c>
       <c r="K38" s="50"/>
       <c r="L38" s="50"/>
       <c r="M38" s="50"/>
       <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
+      <c r="O38" s="211">
+        <v>0.5</v>
+      </c>
       <c r="P38" s="50"/>
       <c r="Q38" s="50"/>
       <c r="R38" s="50"/>
@@ -6184,13 +6488,15 @@
       <c r="AG38" s="57"/>
       <c r="AH38" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI38" s="73"/>
     </row>
-    <row r="39" spans="1:35" ht="17.25">
-      <c r="A39" s="204"/>
-      <c r="B39" s="139"/>
+    <row r="39" spans="1:35" ht="68" x14ac:dyDescent="0.4">
+      <c r="A39" s="143"/>
+      <c r="B39" s="218" t="s">
+        <v>204</v>
+      </c>
       <c r="C39" s="141"/>
       <c r="D39" s="57"/>
       <c r="E39" s="57"/>
@@ -6198,12 +6504,20 @@
       <c r="G39" s="50"/>
       <c r="H39" s="57"/>
       <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
+      <c r="J39" s="50">
+        <v>1</v>
+      </c>
+      <c r="K39" s="50">
+        <v>1.5</v>
+      </c>
       <c r="L39" s="50"/>
       <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
+      <c r="N39" s="50">
+        <v>2</v>
+      </c>
+      <c r="O39" s="211">
+        <v>1</v>
+      </c>
       <c r="P39" s="50"/>
       <c r="Q39" s="50"/>
       <c r="R39" s="50"/>
@@ -6224,13 +6538,15 @@
       <c r="AG39" s="57"/>
       <c r="AH39" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AI39" s="73"/>
     </row>
-    <row r="40" spans="1:35" ht="17.25">
-      <c r="A40" s="204"/>
-      <c r="B40" s="139"/>
+    <row r="40" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A40" s="143"/>
+      <c r="B40" s="218" t="s">
+        <v>205</v>
+      </c>
       <c r="C40" s="141"/>
       <c r="D40" s="57"/>
       <c r="E40" s="57"/>
@@ -6238,12 +6554,18 @@
       <c r="G40" s="50"/>
       <c r="H40" s="57"/>
       <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
+      <c r="J40" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="K40" s="50">
+        <v>1</v>
+      </c>
       <c r="L40" s="50"/>
       <c r="M40" s="50"/>
       <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
+      <c r="O40" s="211">
+        <v>1</v>
+      </c>
       <c r="P40" s="50"/>
       <c r="Q40" s="50"/>
       <c r="R40" s="50"/>
@@ -6264,13 +6586,15 @@
       <c r="AG40" s="57"/>
       <c r="AH40" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI40" s="73"/>
     </row>
-    <row r="41" spans="1:35" ht="17.25">
-      <c r="A41" s="204"/>
-      <c r="B41" s="139"/>
+    <row r="41" spans="1:35" ht="34" x14ac:dyDescent="0.4">
+      <c r="A41" s="143"/>
+      <c r="B41" s="218" t="s">
+        <v>206</v>
+      </c>
       <c r="C41" s="141"/>
       <c r="D41" s="57"/>
       <c r="E41" s="57"/>
@@ -6278,12 +6602,18 @@
       <c r="G41" s="50"/>
       <c r="H41" s="57"/>
       <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
+      <c r="J41" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="K41" s="50">
+        <v>0.5</v>
+      </c>
       <c r="L41" s="50"/>
       <c r="M41" s="50"/>
       <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
+      <c r="O41" s="211">
+        <v>0.5</v>
+      </c>
       <c r="P41" s="50"/>
       <c r="Q41" s="50"/>
       <c r="R41" s="50"/>
@@ -6304,13 +6634,15 @@
       <c r="AG41" s="57"/>
       <c r="AH41" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AI41" s="73"/>
     </row>
-    <row r="42" spans="1:35" ht="17.25">
-      <c r="A42" s="204"/>
-      <c r="B42" s="139"/>
+    <row r="42" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A42" s="143"/>
+      <c r="B42" s="218" t="s">
+        <v>207</v>
+      </c>
       <c r="C42" s="141"/>
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
@@ -6318,12 +6650,16 @@
       <c r="G42" s="50"/>
       <c r="H42" s="57"/>
       <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
+      <c r="J42" s="50">
+        <v>1</v>
+      </c>
+      <c r="K42" s="50">
+        <v>0.5</v>
+      </c>
       <c r="L42" s="50"/>
       <c r="M42" s="50"/>
       <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
+      <c r="O42" s="211"/>
       <c r="P42" s="50"/>
       <c r="Q42" s="50"/>
       <c r="R42" s="50"/>
@@ -6344,13 +6680,15 @@
       <c r="AG42" s="57"/>
       <c r="AH42" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AI42" s="73"/>
     </row>
-    <row r="43" spans="1:35" ht="17.25">
-      <c r="A43" s="204"/>
-      <c r="B43" s="139"/>
+    <row r="43" spans="1:35" ht="34" x14ac:dyDescent="0.4">
+      <c r="A43" s="143"/>
+      <c r="B43" s="218" t="s">
+        <v>195</v>
+      </c>
       <c r="C43" s="141"/>
       <c r="D43" s="57"/>
       <c r="E43" s="57"/>
@@ -6358,12 +6696,18 @@
       <c r="G43" s="50"/>
       <c r="H43" s="57"/>
       <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
+      <c r="J43" s="50">
+        <v>1</v>
+      </c>
       <c r="K43" s="50"/>
       <c r="L43" s="50"/>
       <c r="M43" s="50"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
+      <c r="N43" s="50">
+        <v>1</v>
+      </c>
+      <c r="O43" s="211">
+        <v>0.5</v>
+      </c>
       <c r="P43" s="50"/>
       <c r="Q43" s="50"/>
       <c r="R43" s="50"/>
@@ -6384,13 +6728,15 @@
       <c r="AG43" s="57"/>
       <c r="AH43" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI43" s="73"/>
     </row>
-    <row r="44" spans="1:35" ht="17.25">
-      <c r="A44" s="204"/>
-      <c r="B44" s="139"/>
+    <row r="44" spans="1:35" ht="34" x14ac:dyDescent="0.4">
+      <c r="A44" s="143"/>
+      <c r="B44" s="218" t="s">
+        <v>196</v>
+      </c>
       <c r="C44" s="141"/>
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
@@ -6398,12 +6744,18 @@
       <c r="G44" s="50"/>
       <c r="H44" s="57"/>
       <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
+      <c r="J44" s="50">
+        <v>0.5</v>
+      </c>
       <c r="K44" s="50"/>
       <c r="L44" s="50"/>
       <c r="M44" s="50"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="50"/>
+      <c r="N44" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="O44" s="211">
+        <v>0.5</v>
+      </c>
       <c r="P44" s="50"/>
       <c r="Q44" s="50"/>
       <c r="R44" s="50"/>
@@ -6424,13 +6776,15 @@
       <c r="AG44" s="57"/>
       <c r="AH44" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AI44" s="73"/>
     </row>
-    <row r="45" spans="1:35" ht="17.25">
-      <c r="A45" s="204"/>
-      <c r="B45" s="139"/>
+    <row r="45" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A45" s="143"/>
+      <c r="B45" s="218" t="s">
+        <v>208</v>
+      </c>
       <c r="C45" s="141"/>
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
@@ -6438,12 +6792,20 @@
       <c r="G45" s="50"/>
       <c r="H45" s="57"/>
       <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
+      <c r="J45" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="K45" s="50">
+        <v>0.5</v>
+      </c>
       <c r="L45" s="50"/>
       <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
+      <c r="N45" s="50">
+        <v>1</v>
+      </c>
+      <c r="O45" s="211">
+        <v>1</v>
+      </c>
       <c r="P45" s="50"/>
       <c r="Q45" s="50"/>
       <c r="R45" s="50"/>
@@ -6464,13 +6826,15 @@
       <c r="AG45" s="57"/>
       <c r="AH45" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI45" s="73"/>
     </row>
-    <row r="46" spans="1:35" ht="17.25">
-      <c r="A46" s="204"/>
-      <c r="B46" s="139"/>
+    <row r="46" spans="1:35" ht="34" x14ac:dyDescent="0.4">
+      <c r="A46" s="143"/>
+      <c r="B46" s="218" t="s">
+        <v>197</v>
+      </c>
       <c r="C46" s="141"/>
       <c r="D46" s="57"/>
       <c r="E46" s="57"/>
@@ -6478,12 +6842,20 @@
       <c r="G46" s="50"/>
       <c r="H46" s="57"/>
       <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
+      <c r="J46" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="K46" s="50">
+        <v>1</v>
+      </c>
       <c r="L46" s="50"/>
       <c r="M46" s="50"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="50"/>
+      <c r="N46" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="O46" s="211">
+        <v>1</v>
+      </c>
       <c r="P46" s="50"/>
       <c r="Q46" s="50"/>
       <c r="R46" s="50"/>
@@ -6504,53 +6876,57 @@
       <c r="AG46" s="57"/>
       <c r="AH46" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI46" s="73"/>
     </row>
-    <row r="47" spans="1:35" ht="17.25">
-      <c r="A47" s="204"/>
-      <c r="B47" s="139"/>
-      <c r="C47" s="141"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="50"/>
-      <c r="O47" s="50"/>
-      <c r="P47" s="50"/>
-      <c r="Q47" s="50"/>
-      <c r="R47" s="50"/>
-      <c r="S47" s="50"/>
-      <c r="T47" s="50"/>
-      <c r="U47" s="50"/>
-      <c r="V47" s="50"/>
-      <c r="W47" s="50"/>
-      <c r="X47" s="50"/>
-      <c r="Y47" s="50"/>
-      <c r="Z47" s="50"/>
-      <c r="AA47" s="50"/>
-      <c r="AB47" s="50"/>
-      <c r="AC47" s="50"/>
-      <c r="AD47" s="50"/>
-      <c r="AE47" s="50"/>
-      <c r="AF47" s="57"/>
-      <c r="AG47" s="57"/>
-      <c r="AH47" s="58">
+    <row r="47" spans="1:35" s="217" customFormat="1" ht="17" x14ac:dyDescent="0.4">
+      <c r="A47" s="212" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="221"/>
+      <c r="C47" s="214"/>
+      <c r="D47" s="209"/>
+      <c r="E47" s="209"/>
+      <c r="F47" s="209"/>
+      <c r="G47" s="209"/>
+      <c r="H47" s="209"/>
+      <c r="I47" s="209"/>
+      <c r="J47" s="209"/>
+      <c r="K47" s="209"/>
+      <c r="L47" s="209"/>
+      <c r="M47" s="209"/>
+      <c r="N47" s="209"/>
+      <c r="O47" s="209"/>
+      <c r="P47" s="209"/>
+      <c r="Q47" s="209"/>
+      <c r="R47" s="209"/>
+      <c r="S47" s="209"/>
+      <c r="T47" s="209"/>
+      <c r="U47" s="209"/>
+      <c r="V47" s="209"/>
+      <c r="W47" s="209"/>
+      <c r="X47" s="209"/>
+      <c r="Y47" s="209"/>
+      <c r="Z47" s="209"/>
+      <c r="AA47" s="209"/>
+      <c r="AB47" s="209"/>
+      <c r="AC47" s="209"/>
+      <c r="AD47" s="209"/>
+      <c r="AE47" s="209"/>
+      <c r="AF47" s="209"/>
+      <c r="AG47" s="209"/>
+      <c r="AH47" s="215">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI47" s="73"/>
-    </row>
-    <row r="48" spans="1:35" ht="17.25">
-      <c r="A48" s="204"/>
-      <c r="B48" s="139"/>
+      <c r="AI47" s="216"/>
+    </row>
+    <row r="48" spans="1:35" ht="34" x14ac:dyDescent="0.4">
+      <c r="A48" s="143"/>
+      <c r="B48" s="218" t="s">
+        <v>213</v>
+      </c>
       <c r="C48" s="141"/>
       <c r="D48" s="57"/>
       <c r="E48" s="57"/>
@@ -6563,8 +6939,10 @@
       <c r="L48" s="50"/>
       <c r="M48" s="50"/>
       <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="50"/>
+      <c r="O48" s="211"/>
+      <c r="P48" s="50">
+        <v>0.5</v>
+      </c>
       <c r="Q48" s="50"/>
       <c r="R48" s="50"/>
       <c r="S48" s="50"/>
@@ -6584,13 +6962,15 @@
       <c r="AG48" s="57"/>
       <c r="AH48" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI48" s="73"/>
     </row>
-    <row r="49" spans="1:35" ht="17.25">
-      <c r="A49" s="204"/>
-      <c r="B49" s="139"/>
+    <row r="49" spans="1:35" ht="34" x14ac:dyDescent="0.4">
+      <c r="A49" s="143"/>
+      <c r="B49" s="218" t="s">
+        <v>211</v>
+      </c>
       <c r="C49" s="141"/>
       <c r="D49" s="57"/>
       <c r="E49" s="57"/>
@@ -6603,8 +6983,10 @@
       <c r="L49" s="50"/>
       <c r="M49" s="50"/>
       <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
+      <c r="O49" s="211"/>
+      <c r="P49" s="50">
+        <v>1</v>
+      </c>
       <c r="Q49" s="50"/>
       <c r="R49" s="50"/>
       <c r="S49" s="50"/>
@@ -6624,13 +7006,15 @@
       <c r="AG49" s="57"/>
       <c r="AH49" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI49" s="73"/>
     </row>
-    <row r="50" spans="1:35" ht="17.25">
-      <c r="A50" s="204"/>
-      <c r="B50" s="139"/>
+    <row r="50" spans="1:35" ht="34" x14ac:dyDescent="0.4">
+      <c r="A50" s="143"/>
+      <c r="B50" s="218" t="s">
+        <v>212</v>
+      </c>
       <c r="C50" s="141"/>
       <c r="D50" s="57"/>
       <c r="E50" s="57"/>
@@ -6643,8 +7027,10 @@
       <c r="L50" s="50"/>
       <c r="M50" s="50"/>
       <c r="N50" s="50"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="50"/>
+      <c r="O50" s="211"/>
+      <c r="P50" s="50">
+        <v>0.5</v>
+      </c>
       <c r="Q50" s="50"/>
       <c r="R50" s="50"/>
       <c r="S50" s="50"/>
@@ -6664,13 +7050,15 @@
       <c r="AG50" s="57"/>
       <c r="AH50" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI50" s="73"/>
     </row>
-    <row r="51" spans="1:35" ht="17.25">
-      <c r="A51" s="204"/>
-      <c r="B51" s="139"/>
+    <row r="51" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A51" s="143"/>
+      <c r="B51" s="218" t="s">
+        <v>214</v>
+      </c>
       <c r="C51" s="141"/>
       <c r="D51" s="57"/>
       <c r="E51" s="57"/>
@@ -6683,8 +7071,10 @@
       <c r="L51" s="50"/>
       <c r="M51" s="50"/>
       <c r="N51" s="50"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="50"/>
+      <c r="O51" s="211"/>
+      <c r="P51" s="50">
+        <v>2</v>
+      </c>
       <c r="Q51" s="50"/>
       <c r="R51" s="50"/>
       <c r="S51" s="50"/>
@@ -6704,13 +7094,13 @@
       <c r="AG51" s="57"/>
       <c r="AH51" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI51" s="73"/>
     </row>
-    <row r="52" spans="1:35" ht="17.25">
-      <c r="A52" s="204"/>
-      <c r="B52" s="139"/>
+    <row r="52" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A52" s="143"/>
+      <c r="B52" s="218"/>
       <c r="C52" s="141"/>
       <c r="D52" s="57"/>
       <c r="E52" s="57"/>
@@ -6723,7 +7113,7 @@
       <c r="L52" s="50"/>
       <c r="M52" s="50"/>
       <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
+      <c r="O52" s="211"/>
       <c r="P52" s="50"/>
       <c r="Q52" s="50"/>
       <c r="R52" s="50"/>
@@ -6748,9 +7138,9 @@
       </c>
       <c r="AI52" s="73"/>
     </row>
-    <row r="53" spans="1:35" ht="17.25">
-      <c r="A53" s="204"/>
-      <c r="B53" s="139"/>
+    <row r="53" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A53" s="143"/>
+      <c r="B53" s="218"/>
       <c r="C53" s="141"/>
       <c r="D53" s="57"/>
       <c r="E53" s="57"/>
@@ -6763,7 +7153,7 @@
       <c r="L53" s="50"/>
       <c r="M53" s="50"/>
       <c r="N53" s="50"/>
-      <c r="O53" s="50"/>
+      <c r="O53" s="211"/>
       <c r="P53" s="50"/>
       <c r="Q53" s="50"/>
       <c r="R53" s="50"/>
@@ -6788,50 +7178,52 @@
       </c>
       <c r="AI53" s="73"/>
     </row>
-    <row r="54" spans="1:35" ht="17.25">
-      <c r="A54" s="204"/>
-      <c r="B54" s="139"/>
-      <c r="C54" s="141"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="50"/>
-      <c r="N54" s="50"/>
-      <c r="O54" s="50"/>
-      <c r="P54" s="50"/>
-      <c r="Q54" s="50"/>
-      <c r="R54" s="50"/>
-      <c r="S54" s="50"/>
-      <c r="T54" s="50"/>
-      <c r="U54" s="50"/>
-      <c r="V54" s="50"/>
-      <c r="W54" s="50"/>
-      <c r="X54" s="50"/>
-      <c r="Y54" s="50"/>
-      <c r="Z54" s="50"/>
-      <c r="AA54" s="50"/>
-      <c r="AB54" s="50"/>
-      <c r="AC54" s="50"/>
-      <c r="AD54" s="50"/>
-      <c r="AE54" s="50"/>
-      <c r="AF54" s="57"/>
-      <c r="AG54" s="57"/>
-      <c r="AH54" s="58">
+    <row r="54" spans="1:35" s="217" customFormat="1" ht="17" x14ac:dyDescent="0.4">
+      <c r="A54" s="212" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54" s="221"/>
+      <c r="C54" s="214"/>
+      <c r="D54" s="209"/>
+      <c r="E54" s="209"/>
+      <c r="F54" s="209"/>
+      <c r="G54" s="209"/>
+      <c r="H54" s="209"/>
+      <c r="I54" s="209"/>
+      <c r="J54" s="209"/>
+      <c r="K54" s="209"/>
+      <c r="L54" s="209"/>
+      <c r="M54" s="209"/>
+      <c r="N54" s="209"/>
+      <c r="O54" s="209"/>
+      <c r="P54" s="209"/>
+      <c r="Q54" s="209"/>
+      <c r="R54" s="209"/>
+      <c r="S54" s="209"/>
+      <c r="T54" s="209"/>
+      <c r="U54" s="209"/>
+      <c r="V54" s="209"/>
+      <c r="W54" s="209"/>
+      <c r="X54" s="209"/>
+      <c r="Y54" s="209"/>
+      <c r="Z54" s="209"/>
+      <c r="AA54" s="209"/>
+      <c r="AB54" s="209"/>
+      <c r="AC54" s="209"/>
+      <c r="AD54" s="209"/>
+      <c r="AE54" s="209"/>
+      <c r="AF54" s="209"/>
+      <c r="AG54" s="209"/>
+      <c r="AH54" s="215">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI54" s="73"/>
-    </row>
-    <row r="55" spans="1:35" ht="17.25">
-      <c r="A55" s="204"/>
-      <c r="B55" s="139" t="s">
-        <v>21</v>
+      <c r="AI54" s="216"/>
+    </row>
+    <row r="55" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A55" s="143"/>
+      <c r="B55" s="218" t="s">
+        <v>215</v>
       </c>
       <c r="C55" s="141"/>
       <c r="D55" s="57"/>
@@ -6845,9 +7237,13 @@
       <c r="L55" s="50"/>
       <c r="M55" s="50"/>
       <c r="N55" s="50"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="50"/>
-      <c r="Q55" s="50"/>
+      <c r="O55" s="211"/>
+      <c r="P55" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="50">
+        <v>1</v>
+      </c>
       <c r="R55" s="50"/>
       <c r="S55" s="50"/>
       <c r="T55" s="50"/>
@@ -6866,13 +7262,15 @@
       <c r="AG55" s="57"/>
       <c r="AH55" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI55" s="73"/>
     </row>
-    <row r="56" spans="1:35" ht="17.25">
-      <c r="A56" s="204"/>
-      <c r="B56" s="139"/>
+    <row r="56" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A56" s="143"/>
+      <c r="B56" s="218" t="s">
+        <v>219</v>
+      </c>
       <c r="C56" s="141"/>
       <c r="D56" s="57"/>
       <c r="E56" s="57"/>
@@ -6885,10 +7283,16 @@
       <c r="L56" s="50"/>
       <c r="M56" s="50"/>
       <c r="N56" s="50"/>
-      <c r="O56" s="50"/>
-      <c r="P56" s="50"/>
-      <c r="Q56" s="50"/>
-      <c r="R56" s="50"/>
+      <c r="O56" s="211"/>
+      <c r="P56" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="50">
+        <v>2</v>
+      </c>
+      <c r="R56" s="50">
+        <v>1</v>
+      </c>
       <c r="S56" s="50"/>
       <c r="T56" s="50"/>
       <c r="U56" s="50"/>
@@ -6906,13 +7310,15 @@
       <c r="AG56" s="57"/>
       <c r="AH56" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI56" s="73"/>
     </row>
-    <row r="57" spans="1:35" ht="17.25">
-      <c r="A57" s="204"/>
-      <c r="B57" s="139"/>
+    <row r="57" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A57" s="143"/>
+      <c r="B57" s="218" t="s">
+        <v>218</v>
+      </c>
       <c r="C57" s="141"/>
       <c r="D57" s="57"/>
       <c r="E57" s="57"/>
@@ -6925,10 +7331,16 @@
       <c r="L57" s="50"/>
       <c r="M57" s="50"/>
       <c r="N57" s="50"/>
-      <c r="O57" s="50"/>
-      <c r="P57" s="50"/>
-      <c r="Q57" s="50"/>
-      <c r="R57" s="50"/>
+      <c r="O57" s="211"/>
+      <c r="P57" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="50">
+        <v>2</v>
+      </c>
+      <c r="R57" s="50">
+        <v>1</v>
+      </c>
       <c r="S57" s="50"/>
       <c r="T57" s="50"/>
       <c r="U57" s="50"/>
@@ -6946,13 +7358,15 @@
       <c r="AG57" s="57"/>
       <c r="AH57" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI57" s="73"/>
     </row>
-    <row r="58" spans="1:35" ht="17.25">
-      <c r="A58" s="204"/>
-      <c r="B58" s="139"/>
+    <row r="58" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A58" s="143"/>
+      <c r="B58" s="218" t="s">
+        <v>220</v>
+      </c>
       <c r="C58" s="141"/>
       <c r="D58" s="57"/>
       <c r="E58" s="57"/>
@@ -6965,10 +7379,12 @@
       <c r="L58" s="50"/>
       <c r="M58" s="50"/>
       <c r="N58" s="50"/>
-      <c r="O58" s="50"/>
+      <c r="O58" s="211"/>
       <c r="P58" s="50"/>
       <c r="Q58" s="50"/>
-      <c r="R58" s="50"/>
+      <c r="R58" s="50">
+        <v>1</v>
+      </c>
       <c r="S58" s="50"/>
       <c r="T58" s="50"/>
       <c r="U58" s="50"/>
@@ -6986,13 +7402,15 @@
       <c r="AG58" s="57"/>
       <c r="AH58" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI58" s="73"/>
     </row>
-    <row r="59" spans="1:35" ht="17.25">
-      <c r="A59" s="204"/>
-      <c r="B59" s="139"/>
+    <row r="59" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A59" s="143"/>
+      <c r="B59" s="218" t="s">
+        <v>221</v>
+      </c>
       <c r="C59" s="141"/>
       <c r="D59" s="57"/>
       <c r="E59" s="57"/>
@@ -7005,7 +7423,7 @@
       <c r="L59" s="50"/>
       <c r="M59" s="50"/>
       <c r="N59" s="50"/>
-      <c r="O59" s="50"/>
+      <c r="O59" s="211"/>
       <c r="P59" s="50"/>
       <c r="Q59" s="50"/>
       <c r="R59" s="50"/>
@@ -7030,9 +7448,11 @@
       </c>
       <c r="AI59" s="73"/>
     </row>
-    <row r="60" spans="1:35" ht="17.25">
-      <c r="A60" s="204"/>
-      <c r="B60" s="139"/>
+    <row r="60" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A60" s="143"/>
+      <c r="B60" s="218" t="s">
+        <v>222</v>
+      </c>
       <c r="C60" s="141"/>
       <c r="D60" s="57"/>
       <c r="E60" s="57"/>
@@ -7045,10 +7465,12 @@
       <c r="L60" s="50"/>
       <c r="M60" s="50"/>
       <c r="N60" s="50"/>
-      <c r="O60" s="50"/>
+      <c r="O60" s="211"/>
       <c r="P60" s="50"/>
       <c r="Q60" s="50"/>
-      <c r="R60" s="50"/>
+      <c r="R60" s="50">
+        <v>2</v>
+      </c>
       <c r="S60" s="50"/>
       <c r="T60" s="50"/>
       <c r="U60" s="50"/>
@@ -7066,13 +7488,15 @@
       <c r="AG60" s="57"/>
       <c r="AH60" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI60" s="73"/>
     </row>
-    <row r="61" spans="1:35" ht="17.25">
-      <c r="A61" s="204"/>
-      <c r="B61" s="139"/>
+    <row r="61" spans="1:35" ht="34" x14ac:dyDescent="0.4">
+      <c r="A61" s="143"/>
+      <c r="B61" s="218" t="s">
+        <v>223</v>
+      </c>
       <c r="C61" s="141"/>
       <c r="D61" s="57"/>
       <c r="E61" s="57"/>
@@ -7085,7 +7509,7 @@
       <c r="L61" s="50"/>
       <c r="M61" s="50"/>
       <c r="N61" s="50"/>
-      <c r="O61" s="50"/>
+      <c r="O61" s="211"/>
       <c r="P61" s="50"/>
       <c r="Q61" s="50"/>
       <c r="R61" s="50"/>
@@ -7110,9 +7534,11 @@
       </c>
       <c r="AI61" s="73"/>
     </row>
-    <row r="62" spans="1:35" ht="17.25">
-      <c r="A62" s="204"/>
-      <c r="B62" s="139"/>
+    <row r="62" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A62" s="143"/>
+      <c r="B62" s="218" t="s">
+        <v>216</v>
+      </c>
       <c r="C62" s="141"/>
       <c r="D62" s="57"/>
       <c r="E62" s="57"/>
@@ -7125,9 +7551,11 @@
       <c r="L62" s="50"/>
       <c r="M62" s="50"/>
       <c r="N62" s="50"/>
-      <c r="O62" s="50"/>
+      <c r="O62" s="211"/>
       <c r="P62" s="50"/>
-      <c r="Q62" s="50"/>
+      <c r="Q62" s="50">
+        <v>2</v>
+      </c>
       <c r="R62" s="50"/>
       <c r="S62" s="50"/>
       <c r="T62" s="50"/>
@@ -7146,13 +7574,15 @@
       <c r="AG62" s="57"/>
       <c r="AH62" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI62" s="73"/>
     </row>
-    <row r="63" spans="1:35" ht="17.25">
-      <c r="A63" s="204"/>
-      <c r="B63" s="139"/>
+    <row r="63" spans="1:35" ht="51" x14ac:dyDescent="0.4">
+      <c r="A63" s="143"/>
+      <c r="B63" s="218" t="s">
+        <v>217</v>
+      </c>
       <c r="C63" s="141"/>
       <c r="D63" s="57"/>
       <c r="E63" s="57"/>
@@ -7165,10 +7595,12 @@
       <c r="L63" s="50"/>
       <c r="M63" s="50"/>
       <c r="N63" s="50"/>
-      <c r="O63" s="50"/>
+      <c r="O63" s="211"/>
       <c r="P63" s="50"/>
       <c r="Q63" s="50"/>
-      <c r="R63" s="50"/>
+      <c r="R63" s="50">
+        <v>2</v>
+      </c>
       <c r="S63" s="50"/>
       <c r="T63" s="50"/>
       <c r="U63" s="50"/>
@@ -7186,13 +7618,15 @@
       <c r="AG63" s="57"/>
       <c r="AH63" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI63" s="73"/>
     </row>
-    <row r="64" spans="1:35" ht="17.25">
-      <c r="A64" s="204"/>
-      <c r="B64" s="139"/>
+    <row r="64" spans="1:35" ht="34" x14ac:dyDescent="0.4">
+      <c r="A64" s="143"/>
+      <c r="B64" s="218" t="s">
+        <v>224</v>
+      </c>
       <c r="C64" s="141"/>
       <c r="D64" s="57"/>
       <c r="E64" s="57"/>
@@ -7205,7 +7639,7 @@
       <c r="L64" s="50"/>
       <c r="M64" s="50"/>
       <c r="N64" s="50"/>
-      <c r="O64" s="50"/>
+      <c r="O64" s="211"/>
       <c r="P64" s="50"/>
       <c r="Q64" s="50"/>
       <c r="R64" s="50"/>
@@ -7230,9 +7664,9 @@
       </c>
       <c r="AI64" s="73"/>
     </row>
-    <row r="65" spans="1:35" ht="17.25">
-      <c r="A65" s="204"/>
-      <c r="B65" s="139"/>
+    <row r="65" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A65" s="143"/>
+      <c r="B65" s="218"/>
       <c r="C65" s="141"/>
       <c r="D65" s="57"/>
       <c r="E65" s="57"/>
@@ -7245,7 +7679,7 @@
       <c r="L65" s="50"/>
       <c r="M65" s="50"/>
       <c r="N65" s="50"/>
-      <c r="O65" s="50"/>
+      <c r="O65" s="211"/>
       <c r="P65" s="50"/>
       <c r="Q65" s="50"/>
       <c r="R65" s="50"/>
@@ -7270,10 +7704,10 @@
       </c>
       <c r="AI65" s="73"/>
     </row>
-    <row r="66" spans="1:35" ht="17.25">
-      <c r="A66" s="204"/>
-      <c r="B66" s="139"/>
-      <c r="C66" s="141"/>
+    <row r="66" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A66" s="143"/>
+      <c r="B66" s="220"/>
+      <c r="C66" s="223"/>
       <c r="D66" s="57"/>
       <c r="E66" s="57"/>
       <c r="F66" s="57"/>
@@ -7285,7 +7719,7 @@
       <c r="L66" s="50"/>
       <c r="M66" s="50"/>
       <c r="N66" s="50"/>
-      <c r="O66" s="50"/>
+      <c r="O66" s="211"/>
       <c r="P66" s="50"/>
       <c r="Q66" s="50"/>
       <c r="R66" s="50"/>
@@ -7310,10 +7744,10 @@
       </c>
       <c r="AI66" s="73"/>
     </row>
-    <row r="67" spans="1:35" ht="17.25">
-      <c r="A67" s="204"/>
-      <c r="B67" s="139"/>
-      <c r="C67" s="141"/>
+    <row r="67" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A67" s="222"/>
+      <c r="B67" s="225"/>
+      <c r="C67" s="57"/>
       <c r="D67" s="57"/>
       <c r="E67" s="57"/>
       <c r="F67" s="57"/>
@@ -7325,7 +7759,7 @@
       <c r="L67" s="50"/>
       <c r="M67" s="50"/>
       <c r="N67" s="50"/>
-      <c r="O67" s="50"/>
+      <c r="O67" s="211"/>
       <c r="P67" s="50"/>
       <c r="Q67" s="50"/>
       <c r="R67" s="50"/>
@@ -7350,10 +7784,10 @@
       </c>
       <c r="AI67" s="73"/>
     </row>
-    <row r="68" spans="1:35" ht="17.25">
-      <c r="A68" s="204"/>
-      <c r="B68" s="139"/>
-      <c r="C68" s="141"/>
+    <row r="68" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A68" s="222"/>
+      <c r="B68" s="225"/>
+      <c r="C68" s="57"/>
       <c r="D68" s="57"/>
       <c r="E68" s="57"/>
       <c r="F68" s="57"/>
@@ -7390,10 +7824,10 @@
       </c>
       <c r="AI68" s="73"/>
     </row>
-    <row r="69" spans="1:35" ht="17.25">
-      <c r="A69" s="204"/>
-      <c r="B69" s="139"/>
-      <c r="C69" s="141"/>
+    <row r="69" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A69" s="143"/>
+      <c r="B69" s="219"/>
+      <c r="C69" s="224"/>
       <c r="D69" s="57"/>
       <c r="E69" s="57"/>
       <c r="F69" s="57"/>
@@ -7430,9 +7864,9 @@
       </c>
       <c r="AI69" s="73"/>
     </row>
-    <row r="70" spans="1:35" ht="17.25">
-      <c r="A70" s="204"/>
-      <c r="B70" s="139"/>
+    <row r="70" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A70" s="143"/>
+      <c r="B70" s="218"/>
       <c r="C70" s="141"/>
       <c r="D70" s="57"/>
       <c r="E70" s="57"/>
@@ -7470,9 +7904,9 @@
       </c>
       <c r="AI70" s="73"/>
     </row>
-    <row r="71" spans="1:35" ht="17.25">
-      <c r="A71" s="204"/>
-      <c r="B71" s="139"/>
+    <row r="71" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A71" s="143"/>
+      <c r="B71" s="218"/>
       <c r="C71" s="141"/>
       <c r="D71" s="57"/>
       <c r="E71" s="57"/>
@@ -7510,9 +7944,9 @@
       </c>
       <c r="AI71" s="73"/>
     </row>
-    <row r="72" spans="1:35" ht="17.25">
-      <c r="A72" s="204"/>
-      <c r="B72" s="139"/>
+    <row r="72" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A72" s="143"/>
+      <c r="B72" s="218"/>
       <c r="C72" s="141"/>
       <c r="D72" s="57"/>
       <c r="E72" s="57"/>
@@ -7550,9 +7984,9 @@
       </c>
       <c r="AI72" s="73"/>
     </row>
-    <row r="73" spans="1:35" ht="17.25">
-      <c r="A73" s="204"/>
-      <c r="B73" s="139"/>
+    <row r="73" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A73" s="143"/>
+      <c r="B73" s="218"/>
       <c r="C73" s="141"/>
       <c r="D73" s="57"/>
       <c r="E73" s="57"/>
@@ -7590,9 +8024,9 @@
       </c>
       <c r="AI73" s="73"/>
     </row>
-    <row r="74" spans="1:35" ht="17.25">
-      <c r="A74" s="204"/>
-      <c r="B74" s="139"/>
+    <row r="74" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A74" s="143"/>
+      <c r="B74" s="218"/>
       <c r="C74" s="141"/>
       <c r="D74" s="57"/>
       <c r="E74" s="57"/>
@@ -7630,9 +8064,9 @@
       </c>
       <c r="AI74" s="73"/>
     </row>
-    <row r="75" spans="1:35" ht="17.25">
-      <c r="A75" s="204"/>
-      <c r="B75" s="139"/>
+    <row r="75" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A75" s="143"/>
+      <c r="B75" s="218"/>
       <c r="C75" s="141"/>
       <c r="D75" s="57"/>
       <c r="E75" s="57"/>
@@ -7670,9 +8104,9 @@
       </c>
       <c r="AI75" s="73"/>
     </row>
-    <row r="76" spans="1:35" ht="17.25">
-      <c r="A76" s="204"/>
-      <c r="B76" s="139"/>
+    <row r="76" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A76" s="143"/>
+      <c r="B76" s="218"/>
       <c r="C76" s="141"/>
       <c r="D76" s="57"/>
       <c r="E76" s="57"/>
@@ -7710,9 +8144,9 @@
       </c>
       <c r="AI76" s="73"/>
     </row>
-    <row r="77" spans="1:35" ht="17.25">
-      <c r="A77" s="204"/>
-      <c r="B77" s="139"/>
+    <row r="77" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A77" s="143"/>
+      <c r="B77" s="218"/>
       <c r="C77" s="141"/>
       <c r="D77" s="57"/>
       <c r="E77" s="57"/>
@@ -7750,9 +8184,9 @@
       </c>
       <c r="AI77" s="73"/>
     </row>
-    <row r="78" spans="1:35" ht="17.25">
-      <c r="A78" s="204"/>
-      <c r="B78" s="139"/>
+    <row r="78" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A78" s="143"/>
+      <c r="B78" s="218"/>
       <c r="C78" s="141"/>
       <c r="D78" s="57"/>
       <c r="E78" s="57"/>
@@ -7790,9 +8224,9 @@
       </c>
       <c r="AI78" s="73"/>
     </row>
-    <row r="79" spans="1:35" ht="17.25">
-      <c r="A79" s="204"/>
-      <c r="B79" s="139"/>
+    <row r="79" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A79" s="143"/>
+      <c r="B79" s="218"/>
       <c r="C79" s="141"/>
       <c r="D79" s="57"/>
       <c r="E79" s="57"/>
@@ -7830,9 +8264,9 @@
       </c>
       <c r="AI79" s="73"/>
     </row>
-    <row r="80" spans="1:35" ht="17.25">
-      <c r="A80" s="204"/>
-      <c r="B80" s="139"/>
+    <row r="80" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A80" s="143"/>
+      <c r="B80" s="218"/>
       <c r="C80" s="141"/>
       <c r="D80" s="57"/>
       <c r="E80" s="57"/>
@@ -7870,9 +8304,9 @@
       </c>
       <c r="AI80" s="73"/>
     </row>
-    <row r="81" spans="1:35" ht="17.25">
-      <c r="A81" s="204"/>
-      <c r="B81" s="139"/>
+    <row r="81" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A81" s="143"/>
+      <c r="B81" s="218"/>
       <c r="C81" s="141"/>
       <c r="D81" s="57"/>
       <c r="E81" s="57"/>
@@ -7910,9 +8344,9 @@
       </c>
       <c r="AI81" s="73"/>
     </row>
-    <row r="82" spans="1:35" ht="17.25">
-      <c r="A82" s="204"/>
-      <c r="B82" s="139"/>
+    <row r="82" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A82" s="143"/>
+      <c r="B82" s="218"/>
       <c r="C82" s="141"/>
       <c r="D82" s="57"/>
       <c r="E82" s="57"/>
@@ -7950,9 +8384,9 @@
       </c>
       <c r="AI82" s="73"/>
     </row>
-    <row r="83" spans="1:35" ht="17.25">
-      <c r="A83" s="204"/>
-      <c r="B83" s="139"/>
+    <row r="83" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A83" s="143"/>
+      <c r="B83" s="218"/>
       <c r="C83" s="141"/>
       <c r="D83" s="57"/>
       <c r="E83" s="57"/>
@@ -7990,9 +8424,9 @@
       </c>
       <c r="AI83" s="73"/>
     </row>
-    <row r="84" spans="1:35" ht="17.25">
-      <c r="A84" s="204"/>
-      <c r="B84" s="139"/>
+    <row r="84" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A84" s="143"/>
+      <c r="B84" s="218"/>
       <c r="C84" s="141"/>
       <c r="D84" s="57"/>
       <c r="E84" s="57"/>
@@ -8030,9 +8464,9 @@
       </c>
       <c r="AI84" s="73"/>
     </row>
-    <row r="85" spans="1:35" ht="17.25">
-      <c r="A85" s="204"/>
-      <c r="B85" s="139"/>
+    <row r="85" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A85" s="143"/>
+      <c r="B85" s="218"/>
       <c r="C85" s="141"/>
       <c r="D85" s="57"/>
       <c r="E85" s="57"/>
@@ -8070,9 +8504,9 @@
       </c>
       <c r="AI85" s="73"/>
     </row>
-    <row r="86" spans="1:35" ht="17.25">
-      <c r="A86" s="204"/>
-      <c r="B86" s="139"/>
+    <row r="86" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A86" s="143"/>
+      <c r="B86" s="218"/>
       <c r="C86" s="141"/>
       <c r="D86" s="57"/>
       <c r="E86" s="57"/>
@@ -8110,9 +8544,9 @@
       </c>
       <c r="AI86" s="73"/>
     </row>
-    <row r="87" spans="1:35" ht="17.25">
-      <c r="A87" s="204"/>
-      <c r="B87" s="139"/>
+    <row r="87" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A87" s="143"/>
+      <c r="B87" s="218"/>
       <c r="C87" s="141"/>
       <c r="D87" s="57"/>
       <c r="E87" s="57"/>
@@ -8150,9 +8584,9 @@
       </c>
       <c r="AI87" s="73"/>
     </row>
-    <row r="88" spans="1:35" ht="17.25">
-      <c r="A88" s="204"/>
-      <c r="B88" s="139"/>
+    <row r="88" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A88" s="143"/>
+      <c r="B88" s="218"/>
       <c r="C88" s="141"/>
       <c r="D88" s="57"/>
       <c r="E88" s="57"/>
@@ -8190,9 +8624,9 @@
       </c>
       <c r="AI88" s="73"/>
     </row>
-    <row r="89" spans="1:35" ht="17.25">
-      <c r="A89" s="204"/>
-      <c r="B89" s="139"/>
+    <row r="89" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A89" s="143"/>
+      <c r="B89" s="218"/>
       <c r="C89" s="141"/>
       <c r="D89" s="57"/>
       <c r="E89" s="57"/>
@@ -8230,9 +8664,9 @@
       </c>
       <c r="AI89" s="73"/>
     </row>
-    <row r="90" spans="1:35" ht="17.25">
-      <c r="A90" s="204"/>
-      <c r="B90" s="139"/>
+    <row r="90" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A90" s="143"/>
+      <c r="B90" s="218"/>
       <c r="C90" s="141"/>
       <c r="D90" s="57"/>
       <c r="E90" s="57"/>
@@ -8270,9 +8704,9 @@
       </c>
       <c r="AI90" s="73"/>
     </row>
-    <row r="91" spans="1:35" ht="17.25">
-      <c r="A91" s="204"/>
-      <c r="B91" s="139"/>
+    <row r="91" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A91" s="143"/>
+      <c r="B91" s="218"/>
       <c r="C91" s="141"/>
       <c r="D91" s="57"/>
       <c r="E91" s="57"/>
@@ -8310,9 +8744,9 @@
       </c>
       <c r="AI91" s="73"/>
     </row>
-    <row r="92" spans="1:35" ht="17.25">
-      <c r="A92" s="204"/>
-      <c r="B92" s="139"/>
+    <row r="92" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A92" s="143"/>
+      <c r="B92" s="218"/>
       <c r="C92" s="141"/>
       <c r="D92" s="57"/>
       <c r="E92" s="57"/>
@@ -8350,9 +8784,9 @@
       </c>
       <c r="AI92" s="73"/>
     </row>
-    <row r="93" spans="1:35" ht="17.25">
-      <c r="A93" s="204"/>
-      <c r="B93" s="139"/>
+    <row r="93" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A93" s="143"/>
+      <c r="B93" s="218"/>
       <c r="C93" s="141"/>
       <c r="D93" s="57"/>
       <c r="E93" s="57"/>
@@ -8390,9 +8824,9 @@
       </c>
       <c r="AI93" s="73"/>
     </row>
-    <row r="94" spans="1:35" ht="17.25">
-      <c r="A94" s="204"/>
-      <c r="B94" s="139"/>
+    <row r="94" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A94" s="143"/>
+      <c r="B94" s="218"/>
       <c r="C94" s="141"/>
       <c r="D94" s="57"/>
       <c r="E94" s="57"/>
@@ -8430,9 +8864,9 @@
       </c>
       <c r="AI94" s="73"/>
     </row>
-    <row r="95" spans="1:35" ht="17.25">
-      <c r="A95" s="204"/>
-      <c r="B95" s="139"/>
+    <row r="95" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A95" s="143"/>
+      <c r="B95" s="218"/>
       <c r="C95" s="141"/>
       <c r="D95" s="57"/>
       <c r="E95" s="57"/>
@@ -8470,9 +8904,9 @@
       </c>
       <c r="AI95" s="73"/>
     </row>
-    <row r="96" spans="1:35" ht="17.25">
-      <c r="A96" s="204"/>
-      <c r="B96" s="139"/>
+    <row r="96" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A96" s="143"/>
+      <c r="B96" s="218"/>
       <c r="C96" s="141"/>
       <c r="D96" s="57"/>
       <c r="E96" s="57"/>
@@ -8510,9 +8944,9 @@
       </c>
       <c r="AI96" s="73"/>
     </row>
-    <row r="97" spans="1:35" ht="17.25">
-      <c r="A97" s="204"/>
-      <c r="B97" s="139"/>
+    <row r="97" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A97" s="143"/>
+      <c r="B97" s="218"/>
       <c r="C97" s="141"/>
       <c r="D97" s="57"/>
       <c r="E97" s="57"/>
@@ -8550,9 +8984,9 @@
       </c>
       <c r="AI97" s="73"/>
     </row>
-    <row r="98" spans="1:35" ht="17.25">
-      <c r="A98" s="204"/>
-      <c r="B98" s="139"/>
+    <row r="98" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A98" s="143"/>
+      <c r="B98" s="218"/>
       <c r="C98" s="141"/>
       <c r="D98" s="57"/>
       <c r="E98" s="57"/>
@@ -8590,9 +9024,9 @@
       </c>
       <c r="AI98" s="73"/>
     </row>
-    <row r="99" spans="1:35" ht="17.25">
-      <c r="A99" s="204"/>
-      <c r="B99" s="139"/>
+    <row r="99" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A99" s="143"/>
+      <c r="B99" s="218"/>
       <c r="C99" s="141"/>
       <c r="D99" s="57"/>
       <c r="E99" s="57"/>
@@ -8630,9 +9064,9 @@
       </c>
       <c r="AI99" s="73"/>
     </row>
-    <row r="100" spans="1:35" ht="17.25">
-      <c r="A100" s="204"/>
-      <c r="B100" s="139"/>
+    <row r="100" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A100" s="143"/>
+      <c r="B100" s="218"/>
       <c r="C100" s="141"/>
       <c r="D100" s="57"/>
       <c r="E100" s="57"/>
@@ -8670,9 +9104,9 @@
       </c>
       <c r="AI100" s="73"/>
     </row>
-    <row r="101" spans="1:35" ht="17.25">
-      <c r="A101" s="204"/>
-      <c r="B101" s="139"/>
+    <row r="101" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A101" s="143"/>
+      <c r="B101" s="218"/>
       <c r="C101" s="141"/>
       <c r="D101" s="57"/>
       <c r="E101" s="57"/>
@@ -8710,9 +9144,9 @@
       </c>
       <c r="AI101" s="73"/>
     </row>
-    <row r="102" spans="1:35" ht="17.25">
-      <c r="A102" s="204"/>
-      <c r="B102" s="139"/>
+    <row r="102" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A102" s="143"/>
+      <c r="B102" s="218"/>
       <c r="C102" s="141"/>
       <c r="D102" s="57"/>
       <c r="E102" s="57"/>
@@ -8750,9 +9184,9 @@
       </c>
       <c r="AI102" s="73"/>
     </row>
-    <row r="103" spans="1:35" ht="17.25">
-      <c r="A103" s="204"/>
-      <c r="B103" s="139"/>
+    <row r="103" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A103" s="143"/>
+      <c r="B103" s="218"/>
       <c r="C103" s="141"/>
       <c r="D103" s="57"/>
       <c r="E103" s="57"/>
@@ -8790,9 +9224,9 @@
       </c>
       <c r="AI103" s="73"/>
     </row>
-    <row r="104" spans="1:35" ht="17.25">
-      <c r="A104" s="204"/>
-      <c r="B104" s="139"/>
+    <row r="104" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A104" s="143"/>
+      <c r="B104" s="218"/>
       <c r="C104" s="141"/>
       <c r="D104" s="57"/>
       <c r="E104" s="57"/>
@@ -8830,9 +9264,9 @@
       </c>
       <c r="AI104" s="73"/>
     </row>
-    <row r="105" spans="1:35" ht="17.25">
-      <c r="A105" s="204"/>
-      <c r="B105" s="139"/>
+    <row r="105" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A105" s="143"/>
+      <c r="B105" s="218"/>
       <c r="C105" s="141"/>
       <c r="D105" s="57"/>
       <c r="E105" s="57"/>
@@ -8870,9 +9304,9 @@
       </c>
       <c r="AI105" s="73"/>
     </row>
-    <row r="106" spans="1:35" ht="17.25">
-      <c r="A106" s="204"/>
-      <c r="B106" s="139"/>
+    <row r="106" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A106" s="143"/>
+      <c r="B106" s="218"/>
       <c r="C106" s="141"/>
       <c r="D106" s="57"/>
       <c r="E106" s="57"/>
@@ -8910,9 +9344,9 @@
       </c>
       <c r="AI106" s="73"/>
     </row>
-    <row r="107" spans="1:35" ht="17.25">
-      <c r="A107" s="204"/>
-      <c r="B107" s="139"/>
+    <row r="107" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A107" s="143"/>
+      <c r="B107" s="218"/>
       <c r="C107" s="141"/>
       <c r="D107" s="57"/>
       <c r="E107" s="57"/>
@@ -8950,9 +9384,9 @@
       </c>
       <c r="AI107" s="73"/>
     </row>
-    <row r="108" spans="1:35" ht="17.25">
-      <c r="A108" s="204"/>
-      <c r="B108" s="139"/>
+    <row r="108" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A108" s="143"/>
+      <c r="B108" s="218"/>
       <c r="C108" s="141"/>
       <c r="D108" s="57"/>
       <c r="E108" s="57"/>
@@ -8990,9 +9424,9 @@
       </c>
       <c r="AI108" s="73"/>
     </row>
-    <row r="109" spans="1:35" ht="17.25">
-      <c r="A109" s="204"/>
-      <c r="B109" s="139"/>
+    <row r="109" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A109" s="143"/>
+      <c r="B109" s="218"/>
       <c r="C109" s="141"/>
       <c r="D109" s="57"/>
       <c r="E109" s="57"/>
@@ -9030,9 +9464,9 @@
       </c>
       <c r="AI109" s="73"/>
     </row>
-    <row r="110" spans="1:35" ht="17.25">
-      <c r="A110" s="204"/>
-      <c r="B110" s="139"/>
+    <row r="110" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A110" s="143"/>
+      <c r="B110" s="218"/>
       <c r="C110" s="141"/>
       <c r="D110" s="57"/>
       <c r="E110" s="57"/>
@@ -9070,9 +9504,9 @@
       </c>
       <c r="AI110" s="73"/>
     </row>
-    <row r="111" spans="1:35" ht="17.25">
-      <c r="A111" s="204"/>
-      <c r="B111" s="139"/>
+    <row r="111" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A111" s="143"/>
+      <c r="B111" s="218"/>
       <c r="C111" s="141"/>
       <c r="D111" s="57"/>
       <c r="E111" s="57"/>
@@ -9110,9 +9544,9 @@
       </c>
       <c r="AI111" s="73"/>
     </row>
-    <row r="112" spans="1:35" ht="17.25">
-      <c r="A112" s="204"/>
-      <c r="B112" s="139"/>
+    <row r="112" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A112" s="143"/>
+      <c r="B112" s="218"/>
       <c r="C112" s="141"/>
       <c r="D112" s="57"/>
       <c r="E112" s="57"/>
@@ -9150,9 +9584,9 @@
       </c>
       <c r="AI112" s="73"/>
     </row>
-    <row r="113" spans="1:35" ht="17.25">
-      <c r="A113" s="204"/>
-      <c r="B113" s="139"/>
+    <row r="113" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A113" s="143"/>
+      <c r="B113" s="218"/>
       <c r="C113" s="141"/>
       <c r="D113" s="57"/>
       <c r="E113" s="57"/>
@@ -9190,9 +9624,9 @@
       </c>
       <c r="AI113" s="73"/>
     </row>
-    <row r="114" spans="1:35" ht="17.25">
-      <c r="A114" s="204"/>
-      <c r="B114" s="139"/>
+    <row r="114" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A114" s="143"/>
+      <c r="B114" s="218"/>
       <c r="C114" s="141"/>
       <c r="D114" s="57"/>
       <c r="E114" s="57"/>
@@ -9230,9 +9664,9 @@
       </c>
       <c r="AI114" s="73"/>
     </row>
-    <row r="115" spans="1:35" ht="17.25">
-      <c r="A115" s="204"/>
-      <c r="B115" s="139"/>
+    <row r="115" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A115" s="143"/>
+      <c r="B115" s="218"/>
       <c r="C115" s="141"/>
       <c r="D115" s="57"/>
       <c r="E115" s="57"/>
@@ -9270,9 +9704,9 @@
       </c>
       <c r="AI115" s="73"/>
     </row>
-    <row r="116" spans="1:35" ht="17.25">
-      <c r="A116" s="204"/>
-      <c r="B116" s="139"/>
+    <row r="116" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A116" s="143"/>
+      <c r="B116" s="218"/>
       <c r="C116" s="141"/>
       <c r="D116" s="57"/>
       <c r="E116" s="57"/>
@@ -9310,9 +9744,9 @@
       </c>
       <c r="AI116" s="73"/>
     </row>
-    <row r="117" spans="1:35" ht="17.25">
-      <c r="A117" s="204"/>
-      <c r="B117" s="139"/>
+    <row r="117" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A117" s="143"/>
+      <c r="B117" s="218"/>
       <c r="C117" s="141"/>
       <c r="D117" s="57"/>
       <c r="E117" s="57"/>
@@ -9350,9 +9784,9 @@
       </c>
       <c r="AI117" s="73"/>
     </row>
-    <row r="118" spans="1:35" ht="17.25">
-      <c r="A118" s="204"/>
-      <c r="B118" s="139"/>
+    <row r="118" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A118" s="143"/>
+      <c r="B118" s="218"/>
       <c r="C118" s="141"/>
       <c r="D118" s="57"/>
       <c r="E118" s="57"/>
@@ -9390,9 +9824,9 @@
       </c>
       <c r="AI118" s="73"/>
     </row>
-    <row r="119" spans="1:35" ht="17.25">
-      <c r="A119" s="204"/>
-      <c r="B119" s="139"/>
+    <row r="119" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A119" s="143"/>
+      <c r="B119" s="218"/>
       <c r="C119" s="141"/>
       <c r="D119" s="57"/>
       <c r="E119" s="57"/>
@@ -9430,9 +9864,9 @@
       </c>
       <c r="AI119" s="73"/>
     </row>
-    <row r="120" spans="1:35" ht="17.25">
-      <c r="A120" s="204"/>
-      <c r="B120" s="139"/>
+    <row r="120" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A120" s="143"/>
+      <c r="B120" s="218"/>
       <c r="C120" s="141"/>
       <c r="D120" s="57"/>
       <c r="E120" s="57"/>
@@ -9470,9 +9904,9 @@
       </c>
       <c r="AI120" s="73"/>
     </row>
-    <row r="121" spans="1:35" ht="17.25">
-      <c r="A121" s="204"/>
-      <c r="B121" s="139"/>
+    <row r="121" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A121" s="143"/>
+      <c r="B121" s="218"/>
       <c r="C121" s="141"/>
       <c r="D121" s="57"/>
       <c r="E121" s="57"/>
@@ -9510,9 +9944,9 @@
       </c>
       <c r="AI121" s="73"/>
     </row>
-    <row r="122" spans="1:35" ht="17.25">
-      <c r="A122" s="204"/>
-      <c r="B122" s="139"/>
+    <row r="122" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A122" s="143"/>
+      <c r="B122" s="218"/>
       <c r="C122" s="141"/>
       <c r="D122" s="57"/>
       <c r="E122" s="57"/>
@@ -9550,9 +9984,9 @@
       </c>
       <c r="AI122" s="73"/>
     </row>
-    <row r="123" spans="1:35" ht="17.25">
-      <c r="A123" s="204"/>
-      <c r="B123" s="139"/>
+    <row r="123" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A123" s="143"/>
+      <c r="B123" s="218"/>
       <c r="C123" s="141"/>
       <c r="D123" s="57"/>
       <c r="E123" s="57"/>
@@ -9590,9 +10024,9 @@
       </c>
       <c r="AI123" s="73"/>
     </row>
-    <row r="124" spans="1:35" ht="17.25">
-      <c r="A124" s="206"/>
-      <c r="B124" s="207"/>
+    <row r="124" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A124" s="145"/>
+      <c r="B124" s="219"/>
       <c r="C124" s="141"/>
       <c r="D124" s="57"/>
       <c r="E124" s="57"/>
@@ -9630,9 +10064,9 @@
       </c>
       <c r="AI124" s="73"/>
     </row>
-    <row r="125" spans="1:35" ht="17.25">
+    <row r="125" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A125" s="140"/>
-      <c r="B125" s="139"/>
+      <c r="B125" s="218"/>
       <c r="C125" s="141"/>
       <c r="D125" s="57"/>
       <c r="E125" s="57"/>
@@ -9670,9 +10104,9 @@
       </c>
       <c r="AI125" s="73"/>
     </row>
-    <row r="126" spans="1:35" ht="17.25">
+    <row r="126" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A126" s="140"/>
-      <c r="B126" s="139"/>
+      <c r="B126" s="218"/>
       <c r="C126" s="141"/>
       <c r="D126" s="57"/>
       <c r="E126" s="57"/>
@@ -9710,9 +10144,9 @@
       </c>
       <c r="AI126" s="73"/>
     </row>
-    <row r="127" spans="1:35" ht="17.25">
-      <c r="A127" s="208"/>
-      <c r="B127" s="209"/>
+    <row r="127" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A127" s="146"/>
+      <c r="B127" s="220"/>
       <c r="C127" s="141"/>
       <c r="D127" s="57"/>
       <c r="E127" s="57"/>
@@ -9750,9 +10184,9 @@
       </c>
       <c r="AI127" s="73"/>
     </row>
-    <row r="128" spans="1:35" ht="17.25">
-      <c r="A128" s="204"/>
-      <c r="B128" s="139"/>
+    <row r="128" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A128" s="143"/>
+      <c r="B128" s="218"/>
       <c r="C128" s="141"/>
       <c r="D128" s="57"/>
       <c r="E128" s="57"/>
@@ -9790,9 +10224,9 @@
       </c>
       <c r="AI128" s="73"/>
     </row>
-    <row r="129" spans="1:35" ht="17.25">
-      <c r="A129" s="204"/>
-      <c r="B129" s="139"/>
+    <row r="129" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A129" s="143"/>
+      <c r="B129" s="218"/>
       <c r="C129" s="141"/>
       <c r="D129" s="57"/>
       <c r="E129" s="57"/>
@@ -9830,9 +10264,9 @@
       </c>
       <c r="AI129" s="73"/>
     </row>
-    <row r="130" spans="1:35" ht="17.25">
-      <c r="A130" s="204"/>
-      <c r="B130" s="139"/>
+    <row r="130" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A130" s="143"/>
+      <c r="B130" s="218"/>
       <c r="C130" s="141"/>
       <c r="D130" s="57"/>
       <c r="E130" s="57"/>
@@ -9870,9 +10304,9 @@
       </c>
       <c r="AI130" s="73"/>
     </row>
-    <row r="131" spans="1:35" ht="17.25">
-      <c r="A131" s="204"/>
-      <c r="B131" s="139"/>
+    <row r="131" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A131" s="143"/>
+      <c r="B131" s="218"/>
       <c r="C131" s="141"/>
       <c r="D131" s="57"/>
       <c r="E131" s="57"/>
@@ -9910,9 +10344,9 @@
       </c>
       <c r="AI131" s="73"/>
     </row>
-    <row r="132" spans="1:35" ht="17.25">
-      <c r="A132" s="204"/>
-      <c r="B132" s="139"/>
+    <row r="132" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A132" s="143"/>
+      <c r="B132" s="218"/>
       <c r="C132" s="141"/>
       <c r="D132" s="57"/>
       <c r="E132" s="57"/>
@@ -9950,9 +10384,9 @@
       </c>
       <c r="AI132" s="73"/>
     </row>
-    <row r="133" spans="1:35" ht="17.25">
-      <c r="A133" s="204"/>
-      <c r="B133" s="139"/>
+    <row r="133" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A133" s="143"/>
+      <c r="B133" s="218"/>
       <c r="C133" s="141"/>
       <c r="D133" s="57"/>
       <c r="E133" s="57"/>
@@ -9990,9 +10424,9 @@
       </c>
       <c r="AI133" s="73"/>
     </row>
-    <row r="134" spans="1:35" ht="17.25">
-      <c r="A134" s="204"/>
-      <c r="B134" s="139"/>
+    <row r="134" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A134" s="143"/>
+      <c r="B134" s="218"/>
       <c r="C134" s="141"/>
       <c r="D134" s="57"/>
       <c r="E134" s="57"/>
@@ -10030,9 +10464,9 @@
       </c>
       <c r="AI134" s="73"/>
     </row>
-    <row r="135" spans="1:35" ht="17.25">
-      <c r="A135" s="204"/>
-      <c r="B135" s="139"/>
+    <row r="135" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A135" s="143"/>
+      <c r="B135" s="218"/>
       <c r="C135" s="141"/>
       <c r="D135" s="57"/>
       <c r="E135" s="57"/>
@@ -10070,9 +10504,9 @@
       </c>
       <c r="AI135" s="73"/>
     </row>
-    <row r="136" spans="1:35" ht="17.25">
-      <c r="A136" s="204"/>
-      <c r="B136" s="139"/>
+    <row r="136" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A136" s="143"/>
+      <c r="B136" s="218"/>
       <c r="C136" s="141"/>
       <c r="D136" s="57"/>
       <c r="E136" s="57"/>
@@ -10110,9 +10544,9 @@
       </c>
       <c r="AI136" s="73"/>
     </row>
-    <row r="137" spans="1:35" ht="17.25">
-      <c r="A137" s="204"/>
-      <c r="B137" s="139"/>
+    <row r="137" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A137" s="143"/>
+      <c r="B137" s="218"/>
       <c r="C137" s="141"/>
       <c r="D137" s="57"/>
       <c r="E137" s="57"/>
@@ -10150,9 +10584,9 @@
       </c>
       <c r="AI137" s="73"/>
     </row>
-    <row r="138" spans="1:35" ht="17.25">
-      <c r="A138" s="204"/>
-      <c r="B138" s="139"/>
+    <row r="138" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A138" s="143"/>
+      <c r="B138" s="218"/>
       <c r="C138" s="141"/>
       <c r="D138" s="57"/>
       <c r="E138" s="57"/>
@@ -10190,9 +10624,9 @@
       </c>
       <c r="AI138" s="73"/>
     </row>
-    <row r="139" spans="1:35" ht="17.25">
-      <c r="A139" s="204"/>
-      <c r="B139" s="139"/>
+    <row r="139" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A139" s="143"/>
+      <c r="B139" s="218"/>
       <c r="C139" s="141"/>
       <c r="D139" s="57"/>
       <c r="E139" s="57"/>
@@ -10230,8 +10664,8 @@
       </c>
       <c r="AI139" s="73"/>
     </row>
-    <row r="140" spans="1:35" ht="17.25">
-      <c r="A140" s="204"/>
+    <row r="140" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A140" s="143"/>
       <c r="B140" s="139"/>
       <c r="C140" s="141"/>
       <c r="D140" s="57"/>
@@ -10270,8 +10704,8 @@
       </c>
       <c r="AI140" s="73"/>
     </row>
-    <row r="141" spans="1:35" ht="17.25">
-      <c r="A141" s="204"/>
+    <row r="141" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A141" s="143"/>
       <c r="B141" s="139"/>
       <c r="C141" s="141"/>
       <c r="D141" s="57"/>
@@ -10310,8 +10744,8 @@
       </c>
       <c r="AI141" s="73"/>
     </row>
-    <row r="142" spans="1:35" ht="17.25">
-      <c r="A142" s="204"/>
+    <row r="142" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A142" s="143"/>
       <c r="B142" s="139"/>
       <c r="C142" s="141"/>
       <c r="D142" s="57"/>
@@ -10350,8 +10784,8 @@
       </c>
       <c r="AI142" s="73"/>
     </row>
-    <row r="143" spans="1:35" ht="17.25">
-      <c r="A143" s="204"/>
+    <row r="143" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A143" s="143"/>
       <c r="B143" s="139"/>
       <c r="C143" s="141"/>
       <c r="D143" s="57"/>
@@ -10390,8 +10824,8 @@
       </c>
       <c r="AI143" s="73"/>
     </row>
-    <row r="144" spans="1:35" ht="17.25">
-      <c r="A144" s="204"/>
+    <row r="144" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A144" s="143"/>
       <c r="B144" s="139"/>
       <c r="C144" s="141"/>
       <c r="D144" s="57"/>
@@ -10430,8 +10864,8 @@
       </c>
       <c r="AI144" s="73"/>
     </row>
-    <row r="145" spans="1:35" ht="17.25">
-      <c r="A145" s="204"/>
+    <row r="145" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A145" s="143"/>
       <c r="B145" s="139"/>
       <c r="C145" s="141"/>
       <c r="D145" s="57"/>
@@ -10470,8 +10904,8 @@
       </c>
       <c r="AI145" s="73"/>
     </row>
-    <row r="146" spans="1:35" ht="17.25">
-      <c r="A146" s="204"/>
+    <row r="146" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A146" s="143"/>
       <c r="B146" s="139"/>
       <c r="C146" s="141"/>
       <c r="D146" s="57"/>
@@ -10510,8 +10944,8 @@
       </c>
       <c r="AI146" s="73"/>
     </row>
-    <row r="147" spans="1:35" ht="17.25">
-      <c r="A147" s="204"/>
+    <row r="147" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A147" s="143"/>
       <c r="B147" s="139"/>
       <c r="C147" s="141"/>
       <c r="D147" s="57"/>
@@ -10550,8 +10984,8 @@
       </c>
       <c r="AI147" s="73"/>
     </row>
-    <row r="148" spans="1:35" ht="17.25">
-      <c r="A148" s="204"/>
+    <row r="148" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A148" s="143"/>
       <c r="B148" s="139"/>
       <c r="C148" s="141"/>
       <c r="D148" s="57"/>
@@ -10590,8 +11024,8 @@
       </c>
       <c r="AI148" s="73"/>
     </row>
-    <row r="149" spans="1:35" ht="17.25">
-      <c r="A149" s="204"/>
+    <row r="149" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A149" s="143"/>
       <c r="B149" s="139"/>
       <c r="C149" s="141"/>
       <c r="D149" s="57"/>
@@ -10630,8 +11064,8 @@
       </c>
       <c r="AI149" s="73"/>
     </row>
-    <row r="150" spans="1:35" ht="17.25">
-      <c r="A150" s="204"/>
+    <row r="150" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A150" s="143"/>
       <c r="B150" s="139"/>
       <c r="C150" s="141"/>
       <c r="D150" s="57"/>
@@ -10670,8 +11104,8 @@
       </c>
       <c r="AI150" s="73"/>
     </row>
-    <row r="151" spans="1:35" ht="17.25">
-      <c r="A151" s="204"/>
+    <row r="151" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A151" s="143"/>
       <c r="B151" s="139"/>
       <c r="C151" s="141"/>
       <c r="D151" s="57"/>
@@ -10710,8 +11144,8 @@
       </c>
       <c r="AI151" s="73"/>
     </row>
-    <row r="152" spans="1:35" ht="17.25">
-      <c r="A152" s="204"/>
+    <row r="152" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A152" s="143"/>
       <c r="B152" s="139"/>
       <c r="C152" s="141"/>
       <c r="D152" s="57"/>
@@ -10750,8 +11184,8 @@
       </c>
       <c r="AI152" s="73"/>
     </row>
-    <row r="153" spans="1:35" ht="17.25">
-      <c r="A153" s="204"/>
+    <row r="153" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A153" s="143"/>
       <c r="B153" s="139"/>
       <c r="C153" s="141"/>
       <c r="D153" s="57"/>
@@ -10790,8 +11224,8 @@
       </c>
       <c r="AI153" s="73"/>
     </row>
-    <row r="154" spans="1:35" ht="17.25">
-      <c r="A154" s="204"/>
+    <row r="154" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A154" s="143"/>
       <c r="B154" s="139"/>
       <c r="C154" s="141"/>
       <c r="D154" s="57"/>
@@ -10830,8 +11264,8 @@
       </c>
       <c r="AI154" s="73"/>
     </row>
-    <row r="155" spans="1:35" ht="17.25">
-      <c r="A155" s="204"/>
+    <row r="155" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A155" s="143"/>
       <c r="B155" s="139"/>
       <c r="C155" s="141"/>
       <c r="D155" s="57"/>
@@ -10870,8 +11304,8 @@
       </c>
       <c r="AI155" s="73"/>
     </row>
-    <row r="156" spans="1:35" ht="17.25">
-      <c r="A156" s="204"/>
+    <row r="156" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A156" s="143"/>
       <c r="B156" s="139"/>
       <c r="C156" s="141"/>
       <c r="D156" s="57"/>
@@ -10910,8 +11344,8 @@
       </c>
       <c r="AI156" s="73"/>
     </row>
-    <row r="157" spans="1:35" ht="17.25">
-      <c r="A157" s="204"/>
+    <row r="157" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A157" s="143"/>
       <c r="B157" s="139"/>
       <c r="C157" s="141"/>
       <c r="D157" s="57"/>
@@ -10950,8 +11384,8 @@
       </c>
       <c r="AI157" s="73"/>
     </row>
-    <row r="158" spans="1:35" ht="17.25">
-      <c r="A158" s="204"/>
+    <row r="158" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A158" s="143"/>
       <c r="B158" s="139"/>
       <c r="C158" s="141"/>
       <c r="D158" s="57"/>
@@ -10990,8 +11424,8 @@
       </c>
       <c r="AI158" s="73"/>
     </row>
-    <row r="159" spans="1:35" ht="17.25">
-      <c r="A159" s="204"/>
+    <row r="159" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A159" s="143"/>
       <c r="B159" s="139"/>
       <c r="C159" s="141"/>
       <c r="D159" s="57"/>
@@ -11030,8 +11464,8 @@
       </c>
       <c r="AI159" s="73"/>
     </row>
-    <row r="160" spans="1:35" ht="17.25">
-      <c r="A160" s="204"/>
+    <row r="160" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A160" s="143"/>
       <c r="B160" s="139"/>
       <c r="C160" s="141"/>
       <c r="D160" s="57"/>
@@ -11070,8 +11504,8 @@
       </c>
       <c r="AI160" s="73"/>
     </row>
-    <row r="161" spans="1:35" ht="17.25">
-      <c r="A161" s="204"/>
+    <row r="161" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A161" s="143"/>
       <c r="B161" s="139"/>
       <c r="C161" s="141"/>
       <c r="D161" s="57"/>
@@ -11110,8 +11544,8 @@
       </c>
       <c r="AI161" s="73"/>
     </row>
-    <row r="162" spans="1:35" ht="17.100000000000001">
-      <c r="A162" s="210" t="s">
+    <row r="162" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A162" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B162" s="142"/>
@@ -11149,10 +11583,10 @@
       <c r="AH162" s="55"/>
       <c r="AI162" s="73"/>
     </row>
-    <row r="163" spans="1:35" ht="17.25">
+    <row r="163" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A163" s="67"/>
       <c r="B163" s="56" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C163" s="57" t="s">
         <v>34</v>
@@ -11235,7 +11669,7 @@
       </c>
       <c r="AI163" s="73"/>
     </row>
-    <row r="164" spans="1:35" ht="17.100000000000001">
+    <row r="164" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A164" s="67"/>
       <c r="B164" s="56"/>
       <c r="C164" s="57" t="s">
@@ -11277,7 +11711,7 @@
       </c>
       <c r="AI164" s="73"/>
     </row>
-    <row r="165" spans="1:35" ht="17.100000000000001">
+    <row r="165" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A165" s="67"/>
       <c r="B165" s="56"/>
       <c r="C165" s="57" t="s">
@@ -11319,7 +11753,7 @@
       </c>
       <c r="AI165" s="73"/>
     </row>
-    <row r="166" spans="1:35" ht="13.5" customHeight="1">
+    <row r="166" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="68"/>
       <c r="B166" s="60"/>
       <c r="C166" s="61"/>
@@ -11356,12 +11790,12 @@
       <c r="AH166" s="62"/>
       <c r="AI166" s="73"/>
     </row>
-    <row r="167" spans="1:35" ht="17.100000000000001">
-      <c r="A167" s="180" t="s">
+    <row r="167" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A167" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="B167" s="181"/>
-      <c r="C167" s="182"/>
+      <c r="B167" s="152"/>
+      <c r="C167" s="153"/>
       <c r="D167" s="57"/>
       <c r="E167" s="57"/>
       <c r="F167" s="57"/>
@@ -11398,12 +11832,12 @@
       </c>
       <c r="AI167" s="73"/>
     </row>
-    <row r="168" spans="1:35" ht="17.100000000000001">
-      <c r="A168" s="180" t="s">
+    <row r="168" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A168" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="B168" s="181"/>
-      <c r="C168" s="182"/>
+      <c r="B168" s="152"/>
+      <c r="C168" s="153"/>
       <c r="D168" s="57"/>
       <c r="E168" s="57"/>
       <c r="F168" s="57"/>
@@ -11440,12 +11874,12 @@
       </c>
       <c r="AI168" s="73"/>
     </row>
-    <row r="169" spans="1:35" ht="17.100000000000001">
-      <c r="A169" s="183" t="s">
+    <row r="169" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A169" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="B169" s="184"/>
-      <c r="C169" s="185"/>
+      <c r="B169" s="155"/>
+      <c r="C169" s="156"/>
       <c r="D169" s="57"/>
       <c r="E169" s="57"/>
       <c r="F169" s="57"/>
@@ -11482,15 +11916,15 @@
       </c>
       <c r="AI169" s="73"/>
     </row>
-    <row r="170" spans="1:35" ht="17.100000000000001">
-      <c r="A170" s="180" t="s">
+    <row r="170" spans="1:35" ht="17" x14ac:dyDescent="0.4">
+      <c r="A170" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="B170" s="181"/>
-      <c r="C170" s="182"/>
+      <c r="B170" s="152"/>
+      <c r="C170" s="153"/>
       <c r="D170" s="57">
         <f t="shared" ref="D170:AC170" si="4">SUM(D11:D165)</f>
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="E170" s="57">
         <f t="shared" si="4"/>
@@ -11502,23 +11936,23 @@
       </c>
       <c r="G170" s="57">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H170" s="57">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I170" s="50">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J170" s="50">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K170" s="50">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L170" s="50">
         <f t="shared" si="4"/>
@@ -11530,23 +11964,23 @@
       </c>
       <c r="N170" s="50">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O170" s="50">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P170" s="50">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q170" s="50">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R170" s="50">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S170" s="50">
         <f t="shared" si="4"/>
@@ -11610,153 +12044,153 @@
       </c>
       <c r="AH170" s="58">
         <f>SUM(D170:AG170)</f>
-        <v>23.5</v>
+        <v>98</v>
       </c>
       <c r="AI170" s="73"/>
     </row>
-    <row r="171" spans="1:35" ht="15" thickBot="1"/>
-    <row r="172" spans="1:35" s="93" customFormat="1" ht="18" customHeight="1">
+    <row r="171" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="172" spans="1:35" s="93" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="91"/>
       <c r="B172" s="92" t="s">
         <v>42</v>
       </c>
       <c r="D172" s="4"/>
-      <c r="E172" s="147"/>
-      <c r="F172" s="147"/>
-      <c r="G172" s="147"/>
-      <c r="H172" s="147"/>
-      <c r="I172" s="147"/>
-      <c r="J172" s="147"/>
-      <c r="S172" s="200" t="s">
+      <c r="E172" s="160"/>
+      <c r="F172" s="160"/>
+      <c r="G172" s="160"/>
+      <c r="H172" s="160"/>
+      <c r="I172" s="160"/>
+      <c r="J172" s="160"/>
+      <c r="S172" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="T172" s="201"/>
-      <c r="U172" s="201"/>
-      <c r="V172" s="201"/>
-      <c r="W172" s="201"/>
-      <c r="X172" s="201"/>
-      <c r="Y172" s="201"/>
-      <c r="Z172" s="201"/>
-      <c r="AA172" s="202"/>
-      <c r="AC172" s="186" t="s">
+      <c r="T172" s="206"/>
+      <c r="U172" s="206"/>
+      <c r="V172" s="206"/>
+      <c r="W172" s="206"/>
+      <c r="X172" s="206"/>
+      <c r="Y172" s="206"/>
+      <c r="Z172" s="206"/>
+      <c r="AA172" s="207"/>
+      <c r="AC172" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="AD172" s="187"/>
-      <c r="AE172" s="187"/>
-      <c r="AF172" s="187"/>
-      <c r="AG172" s="187"/>
-      <c r="AH172" s="187"/>
-      <c r="AI172" s="188"/>
-    </row>
-    <row r="173" spans="1:35" ht="15.6">
+      <c r="AD172" s="192"/>
+      <c r="AE172" s="192"/>
+      <c r="AF172" s="192"/>
+      <c r="AG172" s="192"/>
+      <c r="AH172" s="192"/>
+      <c r="AI172" s="193"/>
+    </row>
+    <row r="173" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="69"/>
       <c r="B173" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E173" s="147"/>
-      <c r="F173" s="147"/>
-      <c r="G173" s="147"/>
-      <c r="H173" s="147"/>
-      <c r="I173" s="147"/>
-      <c r="J173" s="147"/>
-      <c r="S173" s="189" t="s">
+      <c r="E173" s="160"/>
+      <c r="F173" s="160"/>
+      <c r="G173" s="160"/>
+      <c r="H173" s="160"/>
+      <c r="I173" s="160"/>
+      <c r="J173" s="160"/>
+      <c r="S173" s="194" t="s">
         <v>46</v>
       </c>
-      <c r="T173" s="190"/>
-      <c r="U173" s="191" t="s">
-        <v>84</v>
-      </c>
-      <c r="V173" s="191"/>
-      <c r="W173" s="191"/>
-      <c r="X173" s="191"/>
-      <c r="Y173" s="191"/>
-      <c r="Z173" s="191"/>
-      <c r="AA173" s="192"/>
-      <c r="AC173" s="163" t="s">
+      <c r="T173" s="195"/>
+      <c r="U173" s="196" t="s">
+        <v>78</v>
+      </c>
+      <c r="V173" s="196"/>
+      <c r="W173" s="196"/>
+      <c r="X173" s="196"/>
+      <c r="Y173" s="196"/>
+      <c r="Z173" s="196"/>
+      <c r="AA173" s="197"/>
+      <c r="AC173" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="AD173" s="149"/>
-      <c r="AE173" s="149"/>
-      <c r="AF173" s="149"/>
-      <c r="AG173" s="149"/>
-      <c r="AH173" s="149"/>
-      <c r="AI173" s="150"/>
-    </row>
-    <row r="174" spans="1:35" ht="18.600000000000001" customHeight="1">
+      <c r="AD173" s="162"/>
+      <c r="AE173" s="162"/>
+      <c r="AF173" s="162"/>
+      <c r="AG173" s="162"/>
+      <c r="AH173" s="162"/>
+      <c r="AI173" s="163"/>
+    </row>
+    <row r="174" spans="1:35" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="70"/>
       <c r="B174" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E174" s="147"/>
-      <c r="F174" s="147"/>
-      <c r="G174" s="147"/>
-      <c r="H174" s="147"/>
-      <c r="I174" s="147"/>
-      <c r="J174" s="147"/>
-      <c r="S174" s="189"/>
-      <c r="T174" s="190"/>
-      <c r="U174" s="191"/>
-      <c r="V174" s="191"/>
-      <c r="W174" s="191"/>
-      <c r="X174" s="191"/>
-      <c r="Y174" s="191"/>
-      <c r="Z174" s="191"/>
-      <c r="AA174" s="192"/>
-      <c r="AC174" s="164"/>
-      <c r="AD174" s="152"/>
-      <c r="AE174" s="152"/>
-      <c r="AF174" s="152"/>
-      <c r="AG174" s="152"/>
-      <c r="AH174" s="152"/>
-      <c r="AI174" s="153"/>
-    </row>
-    <row r="175" spans="1:35" ht="18.600000000000001" customHeight="1">
+      <c r="E174" s="160"/>
+      <c r="F174" s="160"/>
+      <c r="G174" s="160"/>
+      <c r="H174" s="160"/>
+      <c r="I174" s="160"/>
+      <c r="J174" s="160"/>
+      <c r="S174" s="194"/>
+      <c r="T174" s="195"/>
+      <c r="U174" s="196"/>
+      <c r="V174" s="196"/>
+      <c r="W174" s="196"/>
+      <c r="X174" s="196"/>
+      <c r="Y174" s="196"/>
+      <c r="Z174" s="196"/>
+      <c r="AA174" s="197"/>
+      <c r="AC174" s="177"/>
+      <c r="AD174" s="165"/>
+      <c r="AE174" s="165"/>
+      <c r="AF174" s="165"/>
+      <c r="AG174" s="165"/>
+      <c r="AH174" s="165"/>
+      <c r="AI174" s="166"/>
+    </row>
+    <row r="175" spans="1:35" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="71"/>
       <c r="B175" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E175" s="147"/>
-      <c r="F175" s="147"/>
-      <c r="G175" s="147"/>
-      <c r="H175" s="147"/>
-      <c r="I175" s="147"/>
-      <c r="J175" s="147"/>
-      <c r="S175" s="189"/>
-      <c r="T175" s="190"/>
-      <c r="U175" s="191"/>
-      <c r="V175" s="191"/>
-      <c r="W175" s="191"/>
-      <c r="X175" s="191"/>
-      <c r="Y175" s="191"/>
-      <c r="Z175" s="191"/>
-      <c r="AA175" s="192"/>
-      <c r="AC175" s="164"/>
-      <c r="AD175" s="152"/>
-      <c r="AE175" s="152"/>
-      <c r="AF175" s="152"/>
-      <c r="AG175" s="152"/>
-      <c r="AH175" s="152"/>
-      <c r="AI175" s="153"/>
-    </row>
-    <row r="176" spans="1:35" ht="18.95" customHeight="1">
-      <c r="S176" s="189"/>
-      <c r="T176" s="190"/>
-      <c r="U176" s="191"/>
-      <c r="V176" s="191"/>
-      <c r="W176" s="191"/>
-      <c r="X176" s="191"/>
-      <c r="Y176" s="191"/>
-      <c r="Z176" s="191"/>
-      <c r="AA176" s="192"/>
-      <c r="AC176" s="164"/>
-      <c r="AD176" s="152"/>
-      <c r="AE176" s="152"/>
-      <c r="AF176" s="152"/>
-      <c r="AG176" s="152"/>
-      <c r="AH176" s="152"/>
-      <c r="AI176" s="153"/>
-    </row>
-    <row r="177" spans="1:35" ht="18.600000000000001">
+      <c r="E175" s="160"/>
+      <c r="F175" s="160"/>
+      <c r="G175" s="160"/>
+      <c r="H175" s="160"/>
+      <c r="I175" s="160"/>
+      <c r="J175" s="160"/>
+      <c r="S175" s="194"/>
+      <c r="T175" s="195"/>
+      <c r="U175" s="196"/>
+      <c r="V175" s="196"/>
+      <c r="W175" s="196"/>
+      <c r="X175" s="196"/>
+      <c r="Y175" s="196"/>
+      <c r="Z175" s="196"/>
+      <c r="AA175" s="197"/>
+      <c r="AC175" s="177"/>
+      <c r="AD175" s="165"/>
+      <c r="AE175" s="165"/>
+      <c r="AF175" s="165"/>
+      <c r="AG175" s="165"/>
+      <c r="AH175" s="165"/>
+      <c r="AI175" s="166"/>
+    </row>
+    <row r="176" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S176" s="194"/>
+      <c r="T176" s="195"/>
+      <c r="U176" s="196"/>
+      <c r="V176" s="196"/>
+      <c r="W176" s="196"/>
+      <c r="X176" s="196"/>
+      <c r="Y176" s="196"/>
+      <c r="Z176" s="196"/>
+      <c r="AA176" s="197"/>
+      <c r="AC176" s="177"/>
+      <c r="AD176" s="165"/>
+      <c r="AE176" s="165"/>
+      <c r="AF176" s="165"/>
+      <c r="AG176" s="165"/>
+      <c r="AH176" s="165"/>
+      <c r="AI176" s="166"/>
+    </row>
+    <row r="177" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A177" s="72" t="s">
         <v>51</v>
       </c>
@@ -11767,28 +12201,28 @@
       <c r="F177" s="44"/>
       <c r="G177" s="44"/>
       <c r="H177" s="44"/>
-      <c r="S177" s="189"/>
-      <c r="T177" s="190"/>
-      <c r="U177" s="191"/>
-      <c r="V177" s="191"/>
-      <c r="W177" s="191"/>
-      <c r="X177" s="191"/>
-      <c r="Y177" s="191"/>
-      <c r="Z177" s="191"/>
-      <c r="AA177" s="192"/>
-      <c r="AC177" s="193"/>
-      <c r="AD177" s="194"/>
-      <c r="AE177" s="194"/>
-      <c r="AF177" s="194"/>
-      <c r="AG177" s="194"/>
-      <c r="AH177" s="194"/>
-      <c r="AI177" s="195"/>
-    </row>
-    <row r="178" spans="1:35" ht="18.600000000000001">
-      <c r="A178" s="144" t="s">
+      <c r="S177" s="194"/>
+      <c r="T177" s="195"/>
+      <c r="U177" s="196"/>
+      <c r="V177" s="196"/>
+      <c r="W177" s="196"/>
+      <c r="X177" s="196"/>
+      <c r="Y177" s="196"/>
+      <c r="Z177" s="196"/>
+      <c r="AA177" s="197"/>
+      <c r="AC177" s="198"/>
+      <c r="AD177" s="199"/>
+      <c r="AE177" s="199"/>
+      <c r="AF177" s="199"/>
+      <c r="AG177" s="199"/>
+      <c r="AH177" s="199"/>
+      <c r="AI177" s="200"/>
+    </row>
+    <row r="178" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A178" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="B178" s="144"/>
+      <c r="B178" s="157"/>
       <c r="C178" s="63">
         <f>COUNTIF(D169:AG169,"=8")</f>
         <v>0</v>
@@ -11798,30 +12232,30 @@
       <c r="F178" s="44"/>
       <c r="G178" s="44"/>
       <c r="H178" s="44"/>
-      <c r="S178" s="189" t="s">
+      <c r="S178" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="T178" s="190"/>
-      <c r="U178" s="191" t="s">
-        <v>85</v>
-      </c>
-      <c r="V178" s="191"/>
-      <c r="W178" s="191"/>
-      <c r="X178" s="191"/>
-      <c r="Y178" s="191"/>
-      <c r="Z178" s="191"/>
-      <c r="AA178" s="192"/>
-      <c r="AC178" s="164" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD178" s="152"/>
-      <c r="AE178" s="152"/>
-      <c r="AF178" s="152"/>
-      <c r="AG178" s="152"/>
-      <c r="AH178" s="152"/>
-      <c r="AI178" s="153"/>
-    </row>
-    <row r="179" spans="1:35" ht="18.600000000000001">
+      <c r="T178" s="195"/>
+      <c r="U178" s="196" t="s">
+        <v>79</v>
+      </c>
+      <c r="V178" s="196"/>
+      <c r="W178" s="196"/>
+      <c r="X178" s="196"/>
+      <c r="Y178" s="196"/>
+      <c r="Z178" s="196"/>
+      <c r="AA178" s="197"/>
+      <c r="AC178" s="177" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD178" s="165"/>
+      <c r="AE178" s="165"/>
+      <c r="AF178" s="165"/>
+      <c r="AG178" s="165"/>
+      <c r="AH178" s="165"/>
+      <c r="AI178" s="166"/>
+    </row>
+    <row r="179" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A179" s="63" t="s">
         <v>56</v>
       </c>
@@ -11835,24 +12269,24 @@
       <c r="F179" s="44"/>
       <c r="G179" s="44"/>
       <c r="H179" s="44"/>
-      <c r="S179" s="189"/>
-      <c r="T179" s="190"/>
-      <c r="U179" s="191"/>
-      <c r="V179" s="191"/>
-      <c r="W179" s="191"/>
-      <c r="X179" s="191"/>
-      <c r="Y179" s="191"/>
-      <c r="Z179" s="191"/>
-      <c r="AA179" s="192"/>
-      <c r="AC179" s="164"/>
-      <c r="AD179" s="152"/>
-      <c r="AE179" s="152"/>
-      <c r="AF179" s="152"/>
-      <c r="AG179" s="152"/>
-      <c r="AH179" s="152"/>
-      <c r="AI179" s="153"/>
-    </row>
-    <row r="180" spans="1:35" ht="18.600000000000001">
+      <c r="S179" s="194"/>
+      <c r="T179" s="195"/>
+      <c r="U179" s="196"/>
+      <c r="V179" s="196"/>
+      <c r="W179" s="196"/>
+      <c r="X179" s="196"/>
+      <c r="Y179" s="196"/>
+      <c r="Z179" s="196"/>
+      <c r="AA179" s="197"/>
+      <c r="AC179" s="177"/>
+      <c r="AD179" s="165"/>
+      <c r="AE179" s="165"/>
+      <c r="AF179" s="165"/>
+      <c r="AG179" s="165"/>
+      <c r="AH179" s="165"/>
+      <c r="AI179" s="166"/>
+    </row>
+    <row r="180" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A180" s="63" t="s">
         <v>57</v>
       </c>
@@ -11866,24 +12300,24 @@
       <c r="F180" s="44"/>
       <c r="G180" s="44"/>
       <c r="H180" s="44"/>
-      <c r="S180" s="189"/>
-      <c r="T180" s="190"/>
-      <c r="U180" s="191"/>
-      <c r="V180" s="191"/>
-      <c r="W180" s="191"/>
-      <c r="X180" s="191"/>
-      <c r="Y180" s="191"/>
-      <c r="Z180" s="191"/>
-      <c r="AA180" s="192"/>
-      <c r="AC180" s="164"/>
-      <c r="AD180" s="152"/>
-      <c r="AE180" s="152"/>
-      <c r="AF180" s="152"/>
-      <c r="AG180" s="152"/>
-      <c r="AH180" s="152"/>
-      <c r="AI180" s="153"/>
-    </row>
-    <row r="181" spans="1:35" ht="18.600000000000001">
+      <c r="S180" s="194"/>
+      <c r="T180" s="195"/>
+      <c r="U180" s="196"/>
+      <c r="V180" s="196"/>
+      <c r="W180" s="196"/>
+      <c r="X180" s="196"/>
+      <c r="Y180" s="196"/>
+      <c r="Z180" s="196"/>
+      <c r="AA180" s="197"/>
+      <c r="AC180" s="177"/>
+      <c r="AD180" s="165"/>
+      <c r="AE180" s="165"/>
+      <c r="AF180" s="165"/>
+      <c r="AG180" s="165"/>
+      <c r="AH180" s="165"/>
+      <c r="AI180" s="166"/>
+    </row>
+    <row r="181" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A181" s="63" t="s">
         <v>58</v>
       </c>
@@ -11897,28 +12331,28 @@
       <c r="F181" s="44"/>
       <c r="G181" s="44"/>
       <c r="H181" s="44"/>
-      <c r="S181" s="189"/>
-      <c r="T181" s="190"/>
-      <c r="U181" s="191"/>
-      <c r="V181" s="191"/>
-      <c r="W181" s="191"/>
-      <c r="X181" s="191"/>
-      <c r="Y181" s="191"/>
-      <c r="Z181" s="191"/>
-      <c r="AA181" s="192"/>
-      <c r="AC181" s="164"/>
-      <c r="AD181" s="152"/>
-      <c r="AE181" s="152"/>
-      <c r="AF181" s="152"/>
-      <c r="AG181" s="152"/>
-      <c r="AH181" s="152"/>
-      <c r="AI181" s="153"/>
-    </row>
-    <row r="182" spans="1:35" ht="18.95" thickBot="1">
-      <c r="A182" s="178" t="s">
+      <c r="S181" s="194"/>
+      <c r="T181" s="195"/>
+      <c r="U181" s="196"/>
+      <c r="V181" s="196"/>
+      <c r="W181" s="196"/>
+      <c r="X181" s="196"/>
+      <c r="Y181" s="196"/>
+      <c r="Z181" s="196"/>
+      <c r="AA181" s="197"/>
+      <c r="AC181" s="177"/>
+      <c r="AD181" s="165"/>
+      <c r="AE181" s="165"/>
+      <c r="AF181" s="165"/>
+      <c r="AG181" s="165"/>
+      <c r="AH181" s="165"/>
+      <c r="AI181" s="166"/>
+    </row>
+    <row r="182" spans="1:35" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A182" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="B182" s="178"/>
+      <c r="B182" s="148"/>
       <c r="C182" s="63">
         <f>COUNTIF(D170:AG170,"&gt;0")</f>
         <v>21</v>
@@ -11928,24 +12362,24 @@
       <c r="F182" s="44"/>
       <c r="G182" s="44"/>
       <c r="H182" s="44"/>
-      <c r="S182" s="196"/>
-      <c r="T182" s="197"/>
-      <c r="U182" s="198"/>
-      <c r="V182" s="198"/>
-      <c r="W182" s="198"/>
-      <c r="X182" s="198"/>
-      <c r="Y182" s="198"/>
-      <c r="Z182" s="198"/>
-      <c r="AA182" s="199"/>
-      <c r="AC182" s="165"/>
-      <c r="AD182" s="155"/>
-      <c r="AE182" s="155"/>
-      <c r="AF182" s="155"/>
-      <c r="AG182" s="155"/>
-      <c r="AH182" s="155"/>
-      <c r="AI182" s="156"/>
-    </row>
-    <row r="183" spans="1:35" ht="18.600000000000001">
+      <c r="S182" s="201"/>
+      <c r="T182" s="202"/>
+      <c r="U182" s="203"/>
+      <c r="V182" s="203"/>
+      <c r="W182" s="203"/>
+      <c r="X182" s="203"/>
+      <c r="Y182" s="203"/>
+      <c r="Z182" s="203"/>
+      <c r="AA182" s="204"/>
+      <c r="AC182" s="178"/>
+      <c r="AD182" s="168"/>
+      <c r="AE182" s="168"/>
+      <c r="AF182" s="168"/>
+      <c r="AG182" s="168"/>
+      <c r="AH182" s="168"/>
+      <c r="AI182" s="169"/>
+    </row>
+    <row r="183" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A183" s="63" t="s">
         <v>60</v>
       </c>
@@ -11960,7 +12394,7 @@
       <c r="G183" s="44"/>
       <c r="H183" s="44"/>
     </row>
-    <row r="184" spans="1:35" ht="18.600000000000001">
+    <row r="184" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A184" s="63"/>
       <c r="B184" s="47"/>
       <c r="C184" s="63"/>
@@ -11970,7 +12404,7 @@
       <c r="G184" s="44"/>
       <c r="H184" s="44"/>
     </row>
-    <row r="185" spans="1:35" ht="18.600000000000001">
+    <row r="185" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A185" s="72" t="s">
         <v>61</v>
       </c>
@@ -11982,14 +12416,14 @@
       <c r="G185" s="44"/>
       <c r="H185" s="44"/>
     </row>
-    <row r="186" spans="1:35" ht="35.450000000000003" customHeight="1">
-      <c r="A186" s="178" t="s">
+    <row r="186" spans="1:35" ht="35.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A186" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="B186" s="178"/>
+      <c r="B186" s="148"/>
       <c r="C186" s="63">
         <f>AH170</f>
-        <v>23.5</v>
+        <v>98</v>
       </c>
       <c r="D186" s="44"/>
       <c r="E186" s="44"/>
@@ -11997,11 +12431,11 @@
       <c r="G186" s="44"/>
       <c r="H186" s="44"/>
     </row>
-    <row r="187" spans="1:35" ht="38.1" customHeight="1">
-      <c r="A187" s="178" t="s">
+    <row r="187" spans="1:35" ht="38.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A187" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="B187" s="178"/>
+      <c r="B187" s="148"/>
       <c r="C187" s="63">
         <v>39</v>
       </c>
@@ -12011,7 +12445,7 @@
       <c r="G187" s="44"/>
       <c r="H187" s="44"/>
     </row>
-    <row r="188" spans="1:35" ht="18.600000000000001">
+    <row r="188" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A188" s="63" t="s">
         <v>64</v>
       </c>
@@ -12026,7 +12460,7 @@
       <c r="G188" s="44"/>
       <c r="H188" s="44"/>
     </row>
-    <row r="189" spans="1:35" ht="18.600000000000001">
+    <row r="189" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A189" s="63" t="s">
         <v>65</v>
       </c>
@@ -12043,7 +12477,7 @@
       <c r="I189" s="44"/>
       <c r="J189" s="44"/>
     </row>
-    <row r="190" spans="1:35" ht="18.600000000000001">
+    <row r="190" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A190" s="63" t="s">
         <v>66</v>
       </c>
@@ -12060,7 +12494,7 @@
       <c r="I190" s="44"/>
       <c r="J190" s="44"/>
     </row>
-    <row r="191" spans="1:35" ht="18.600000000000001">
+    <row r="191" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A191" s="63"/>
       <c r="B191" s="47"/>
       <c r="C191" s="63"/>
@@ -12072,7 +12506,7 @@
       <c r="I191" s="44"/>
       <c r="J191" s="44"/>
     </row>
-    <row r="192" spans="1:35" ht="18.600000000000001">
+    <row r="192" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A192" s="72" t="s">
         <v>67</v>
       </c>
@@ -12086,7 +12520,7 @@
       <c r="I192" s="44"/>
       <c r="J192" s="44"/>
     </row>
-    <row r="193" spans="1:10" ht="18.600000000000001">
+    <row r="193" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A193" s="63" t="s">
         <v>68</v>
       </c>
@@ -12100,7 +12534,7 @@
       <c r="I193" s="44"/>
       <c r="J193" s="44"/>
     </row>
-    <row r="194" spans="1:10" ht="18.600000000000001">
+    <row r="194" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A194" s="63" t="s">
         <v>69</v>
       </c>
@@ -12114,7 +12548,7 @@
       <c r="I194" s="44"/>
       <c r="J194" s="44"/>
     </row>
-    <row r="195" spans="1:10" ht="18.600000000000001">
+    <row r="195" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A195" s="63"/>
       <c r="B195" s="47"/>
       <c r="C195" s="63"/>
@@ -12126,23 +12560,10 @@
       <c r="I195" s="44"/>
       <c r="J195" s="44"/>
     </row>
-    <row r="197" spans="1:10" ht="155.44999999999999" customHeight="1"/>
-    <row r="198" spans="1:10" ht="168.95" customHeight="1"/>
-    <row r="199" spans="1:10" ht="15"/>
-    <row r="200" spans="1:10" ht="15"/>
+    <row r="197" spans="1:10" ht="155.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" spans="1:10" ht="169" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="E172:J175"/>
     <mergeCell ref="A186:B186"/>
     <mergeCell ref="A187:B187"/>
     <mergeCell ref="AC172:AI172"/>
@@ -12155,6 +12576,17 @@
     <mergeCell ref="AC178:AI182"/>
     <mergeCell ref="A182:B182"/>
     <mergeCell ref="S172:AA172"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="E172:J175"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="expression" dxfId="5" priority="1">
@@ -12166,12 +12598,12 @@
       <formula>TEXT(B3,"mmm")&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D166:AF166 D167:AG170 D9:AG165">
+  <conditionalFormatting sqref="D9:AG165 D166:AF166 D167:AG170">
     <cfRule type="expression" dxfId="3" priority="36">
       <formula>D$169=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D166:AF166 D167:AG170 D9:AG165">
+  <conditionalFormatting sqref="D167:AG170 D9:AG165 D166:AF166">
     <cfRule type="expression" dxfId="2" priority="35">
       <formula>OR(D$9="Sat",D$9="Sun")</formula>
     </cfRule>
@@ -12204,17 +12636,17 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="20.5703125" style="97" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="51.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" style="97" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" customWidth="1"/>
+    <col min="6" max="6" width="51.26953125" style="2" customWidth="1"/>
     <col min="7" max="7" width="30" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" customWidth="1"/>
+    <col min="8" max="8" width="35.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="4" customFormat="1" ht="9.75" customHeight="1">
+    <row r="1" spans="1:26" s="4" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="94"/>
@@ -12242,12 +12674,12 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:26" s="4" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="94"/>
       <c r="D2" s="99" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="99"/>
@@ -12272,7 +12704,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="1:26" s="4" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:26" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="94"/>
@@ -12300,12 +12732,12 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26" s="4" customFormat="1" ht="12.75" customHeight="1">
+    <row r="4" spans="1:26" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="94"/>
       <c r="D4" s="100" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="100"/>
@@ -12330,7 +12762,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26" s="4" customFormat="1" ht="9.75" customHeight="1">
+    <row r="5" spans="1:26" s="4" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="94"/>
@@ -12358,7 +12790,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:26" s="4" customFormat="1" ht="9.75" customHeight="1">
+    <row r="6" spans="1:26" s="4" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="94"/>
@@ -12386,56 +12818,56 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="26.1" customHeight="1">
+    <row r="7" spans="1:26" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:26" ht="30" customHeight="1">
+    <row r="8" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="10"/>
       <c r="D8" s="37"/>
       <c r="E8" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:26" ht="30" customHeight="1">
+    <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B10" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="38" t="s">
         <v>92</v>
-      </c>
-      <c r="C10" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="101" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="21.95" customHeight="1">
-      <c r="B11" s="38" t="s">
-        <v>98</v>
       </c>
       <c r="C11" s="96"/>
       <c r="D11" s="96"/>
@@ -12443,7 +12875,7 @@
       <c r="F11" s="96"/>
       <c r="G11" s="38"/>
     </row>
-    <row r="12" spans="1:26" ht="56.45" customHeight="1">
+    <row r="12" spans="1:26" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="14">
         <v>1</v>
       </c>
@@ -12451,19 +12883,19 @@
         <v>0</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="26.1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="26" x14ac:dyDescent="0.35">
       <c r="B13" s="14">
         <v>2</v>
       </c>
@@ -12471,41 +12903,41 @@
         <v>6</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="26.1">
+    <row r="14" spans="1:26" ht="26" x14ac:dyDescent="0.35">
       <c r="B14" s="14">
         <v>3</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:26" ht="26.1">
+    <row r="15" spans="1:26" ht="26" x14ac:dyDescent="0.35">
       <c r="B15" s="14">
         <v>4</v>
       </c>
@@ -12513,20 +12945,20 @@
         <v>18</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:26" ht="39.75" customHeight="1">
+    <row r="16" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="14">
         <v>5</v>
       </c>
@@ -12534,20 +12966,20 @@
         <v>8</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="2:8" ht="39">
+    <row r="17" spans="2:8" ht="39" x14ac:dyDescent="0.35">
       <c r="B17" s="14">
         <v>6</v>
       </c>
@@ -12555,64 +12987,64 @@
         <v>14</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="2:8" ht="26.1">
+    <row r="18" spans="2:8" ht="26" x14ac:dyDescent="0.35">
       <c r="B18" s="14">
         <v>7</v>
       </c>
       <c r="C18" s="138" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="2:8" ht="51.95">
+    <row r="19" spans="2:8" ht="52" x14ac:dyDescent="0.35">
       <c r="B19" s="14">
         <v>8</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H19" s="24"/>
     </row>
-    <row r="20" spans="2:8" ht="27.6" customHeight="1">
+    <row r="20" spans="2:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="38" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C20" s="96"/>
       <c r="D20" s="96"/>
@@ -12621,28 +13053,28 @@
       <c r="G20" s="38"/>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="2:8" ht="129.94999999999999">
+    <row r="21" spans="2:8" ht="130" x14ac:dyDescent="0.35">
       <c r="B21" s="18">
         <v>9</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="2:8" ht="98.45" customHeight="1">
+    <row r="22" spans="2:8" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="14">
         <v>10</v>
       </c>
@@ -12650,104 +13082,104 @@
         <v>21</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" spans="2:8" ht="51.95">
+    <row r="23" spans="2:8" ht="52" x14ac:dyDescent="0.35">
       <c r="B23" s="18">
         <v>11</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:8" ht="90.95">
+    <row r="24" spans="2:8" ht="91" x14ac:dyDescent="0.35">
       <c r="B24" s="14">
         <v>12</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="2:8" ht="104.1">
+    <row r="25" spans="2:8" ht="104" x14ac:dyDescent="0.35">
       <c r="B25" s="18">
         <v>13</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E25" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="F25" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>147</v>
-      </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:8" ht="51.95">
+    <row r="26" spans="2:8" ht="52" x14ac:dyDescent="0.35">
       <c r="B26" s="14">
         <v>14</v>
       </c>
       <c r="C26" s="103" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="30" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:8" ht="27.6" customHeight="1">
+    <row r="27" spans="2:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="104" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C27" s="105"/>
       <c r="D27" s="105"/>
@@ -12756,7 +13188,7 @@
       <c r="G27" s="104"/>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="2:8" ht="27.6" customHeight="1">
+    <row r="28" spans="2:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="107">
         <v>15</v>
       </c>
@@ -12764,16 +13196,16 @@
         <v>52</v>
       </c>
       <c r="D28" s="109" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F28" s="110"/>
       <c r="G28" s="111"/>
       <c r="H28" s="24"/>
     </row>
-    <row r="29" spans="2:8" ht="27.6" customHeight="1">
+    <row r="29" spans="2:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="107">
         <v>16</v>
       </c>
@@ -12781,16 +13213,16 @@
         <v>56</v>
       </c>
       <c r="D29" s="109" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F29" s="113"/>
       <c r="G29" s="114"/>
       <c r="H29" s="24"/>
     </row>
-    <row r="30" spans="2:8" ht="27.6" customHeight="1">
+    <row r="30" spans="2:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="107">
         <v>17</v>
       </c>
@@ -12798,16 +13230,16 @@
         <v>57</v>
       </c>
       <c r="D30" s="109" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F30" s="113"/>
       <c r="G30" s="114"/>
       <c r="H30" s="24"/>
     </row>
-    <row r="31" spans="2:8" ht="27.6" customHeight="1">
+    <row r="31" spans="2:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="107">
         <v>18</v>
       </c>
@@ -12815,16 +13247,16 @@
         <v>58</v>
       </c>
       <c r="D31" s="109" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F31" s="113"/>
       <c r="G31" s="114"/>
       <c r="H31" s="24"/>
     </row>
-    <row r="32" spans="2:8" ht="40.5" customHeight="1">
+    <row r="32" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="107">
         <v>19</v>
       </c>
@@ -12832,16 +13264,16 @@
         <v>59</v>
       </c>
       <c r="D32" s="109" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F32" s="113"/>
       <c r="G32" s="114"/>
       <c r="H32" s="24"/>
     </row>
-    <row r="33" spans="2:8" ht="46.5" customHeight="1">
+    <row r="33" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="107">
         <v>20</v>
       </c>
@@ -12849,16 +13281,16 @@
         <v>60</v>
       </c>
       <c r="D33" s="109" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F33" s="113"/>
       <c r="G33" s="114"/>
       <c r="H33" s="24"/>
     </row>
-    <row r="34" spans="2:8" ht="43.5" customHeight="1">
+    <row r="34" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="107">
         <v>21</v>
       </c>
@@ -12866,37 +13298,37 @@
         <v>62</v>
       </c>
       <c r="D34" s="109" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F34" s="113"/>
       <c r="G34" s="114"/>
       <c r="H34" s="24"/>
     </row>
-    <row r="35" spans="2:8" ht="40.5" customHeight="1">
+    <row r="35" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="107">
         <v>22</v>
       </c>
       <c r="C35" s="116" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D35" s="117" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F35" s="118" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G35" s="119" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H35" s="24"/>
     </row>
-    <row r="36" spans="2:8" ht="24" customHeight="1">
+    <row r="36" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="107">
         <v>23</v>
       </c>
@@ -12904,16 +13336,16 @@
         <v>64</v>
       </c>
       <c r="D36" s="121" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F36" s="113"/>
       <c r="G36" s="114"/>
       <c r="H36" s="24"/>
     </row>
-    <row r="37" spans="2:8" ht="27.6" customHeight="1">
+    <row r="37" spans="2:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="107">
         <v>24</v>
       </c>
@@ -12921,16 +13353,16 @@
         <v>65</v>
       </c>
       <c r="D37" s="121" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F37" s="113"/>
       <c r="G37" s="114"/>
       <c r="H37" s="24"/>
     </row>
-    <row r="38" spans="2:8" ht="27.6" customHeight="1">
+    <row r="38" spans="2:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="107">
         <v>25</v>
       </c>
@@ -12938,77 +13370,77 @@
         <v>66</v>
       </c>
       <c r="D38" s="121" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F38" s="113"/>
       <c r="G38" s="114"/>
       <c r="H38" s="24"/>
     </row>
-    <row r="39" spans="2:8" ht="86.1" customHeight="1">
+    <row r="39" spans="2:8" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="107">
         <v>26</v>
       </c>
       <c r="C39" s="115" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D39" s="122" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E39" s="122" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F39" s="121"/>
       <c r="G39" s="121" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H39" s="24"/>
     </row>
-    <row r="40" spans="2:8" ht="65.099999999999994">
+    <row r="40" spans="2:8" ht="65" x14ac:dyDescent="0.35">
       <c r="B40" s="107">
         <v>27</v>
       </c>
       <c r="C40" s="115" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D40" s="122" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E40" s="119" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F40" s="122" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G40" s="119" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H40" s="24"/>
     </row>
-    <row r="41" spans="2:8" ht="71.099999999999994" customHeight="1">
+    <row r="41" spans="2:8" ht="71.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="107">
         <v>28</v>
       </c>
       <c r="C41" s="115" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D41" s="122" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E41" s="119" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F41" s="122" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G41" s="119" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H41" s="24"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="107"/>
       <c r="C42" s="128"/>
       <c r="D42" s="122"/>
@@ -13017,7 +13449,7 @@
       <c r="G42" s="119"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="107"/>
       <c r="C43" s="128"/>
       <c r="D43" s="122"/>
@@ -13025,7 +13457,7 @@
       <c r="F43" s="122"/>
       <c r="G43" s="119"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="107"/>
       <c r="C44" s="128"/>
       <c r="D44" s="122"/>
@@ -13033,7 +13465,7 @@
       <c r="F44" s="119"/>
       <c r="G44" s="119"/>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="107"/>
       <c r="C45" s="128"/>
       <c r="D45" s="122"/>
@@ -13041,7 +13473,7 @@
       <c r="F45" s="119"/>
       <c r="G45" s="119"/>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="107"/>
       <c r="C46" s="128"/>
       <c r="D46" s="122"/>
@@ -13049,39 +13481,39 @@
       <c r="F46" s="119"/>
       <c r="G46" s="119"/>
     </row>
-    <row r="47" spans="2:8" ht="312" customHeight="1">
+    <row r="47" spans="2:8" ht="312" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="107"/>
       <c r="C47" s="129"/>
       <c r="D47" s="122"/>
       <c r="E47" s="119"/>
-      <c r="F47" s="203"/>
+      <c r="F47" s="208"/>
       <c r="G47" s="122"/>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="107"/>
       <c r="C48" s="128"/>
       <c r="D48" s="122"/>
       <c r="E48" s="119"/>
-      <c r="F48" s="203"/>
+      <c r="F48" s="208"/>
       <c r="G48" s="122"/>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B49" s="107"/>
       <c r="C49" s="128"/>
       <c r="D49" s="122"/>
       <c r="E49" s="119"/>
-      <c r="F49" s="203"/>
+      <c r="F49" s="208"/>
       <c r="G49" s="122"/>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B50" s="107"/>
       <c r="C50" s="129"/>
       <c r="D50" s="122"/>
       <c r="E50" s="119"/>
-      <c r="F50" s="203"/>
+      <c r="F50" s="208"/>
       <c r="G50" s="122"/>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B51" s="107"/>
       <c r="C51" s="130"/>
       <c r="D51" s="122"/>
@@ -13090,7 +13522,7 @@
       <c r="G51" s="122"/>
       <c r="H51" s="28"/>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52" s="107"/>
       <c r="C52" s="132"/>
       <c r="D52" s="122"/>
@@ -13099,7 +13531,7 @@
       <c r="G52" s="122"/>
       <c r="H52" s="29"/>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" s="107"/>
       <c r="C53" s="132"/>
       <c r="D53" s="122"/>
@@ -13108,7 +13540,7 @@
       <c r="G53" s="122"/>
       <c r="H53" s="29"/>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B54" s="107"/>
       <c r="C54" s="132"/>
       <c r="D54" s="122"/>
@@ -13117,7 +13549,7 @@
       <c r="G54" s="122"/>
       <c r="H54" s="28"/>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B55" s="107"/>
       <c r="C55" s="132"/>
       <c r="D55" s="122"/>
@@ -13126,7 +13558,7 @@
       <c r="G55" s="122"/>
       <c r="H55" s="28"/>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B56" s="107"/>
       <c r="C56" s="132"/>
       <c r="D56" s="133"/>
@@ -13134,7 +13566,7 @@
       <c r="F56" s="122"/>
       <c r="G56" s="131"/>
     </row>
-    <row r="57" spans="2:8" ht="180" customHeight="1">
+    <row r="57" spans="2:8" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="107"/>
       <c r="C57" s="132"/>
       <c r="D57" s="133"/>
@@ -13142,7 +13574,7 @@
       <c r="F57" s="133"/>
       <c r="G57" s="131"/>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B58" s="107"/>
       <c r="C58" s="132"/>
       <c r="D58" s="118"/>
@@ -13151,7 +13583,7 @@
       <c r="G58" s="119"/>
       <c r="H58" s="28"/>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B59" s="107"/>
       <c r="C59" s="132"/>
       <c r="D59" s="118"/>
@@ -13160,7 +13592,7 @@
       <c r="G59" s="119"/>
       <c r="H59" s="28"/>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B60" s="107"/>
       <c r="C60" s="132"/>
       <c r="D60" s="118"/>
@@ -13169,7 +13601,7 @@
       <c r="G60" s="119"/>
       <c r="H60" s="28"/>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B61" s="107"/>
       <c r="C61" s="134"/>
       <c r="D61" s="122"/>
@@ -13177,7 +13609,7 @@
       <c r="F61" s="122"/>
       <c r="G61" s="119"/>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B62" s="107"/>
       <c r="C62" s="135"/>
       <c r="D62" s="118"/>
@@ -13185,7 +13617,7 @@
       <c r="F62" s="122"/>
       <c r="G62" s="121"/>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B63" s="123"/>
       <c r="C63" s="124"/>
       <c r="D63" s="125"/>
@@ -13193,7 +13625,7 @@
       <c r="F63" s="125"/>
       <c r="G63" s="127"/>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B64" s="18"/>
       <c r="C64" s="34"/>
       <c r="D64" s="26"/>
@@ -13201,7 +13633,7 @@
       <c r="F64" s="26"/>
       <c r="G64" s="32"/>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B65" s="18"/>
       <c r="C65" s="34"/>
       <c r="D65" s="26"/>
@@ -13209,7 +13641,7 @@
       <c r="F65" s="26"/>
       <c r="G65" s="33"/>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B66" s="18"/>
       <c r="C66" s="34"/>
       <c r="D66" s="26"/>
@@ -13217,7 +13649,7 @@
       <c r="F66" s="26"/>
       <c r="G66" s="33"/>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B67" s="18"/>
       <c r="C67" s="34"/>
       <c r="D67" s="26"/>
@@ -13391,9 +13823,27 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A50F55-EB9E-48CA-A399-9CBC9253A5CE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A50F55-EB9E-48CA-A399-9CBC9253A5CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E1BDC32-896F-448F-9DE0-A2D567D26AC8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E1BDC32-896F-448F-9DE0-A2D567D26AC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ecef1726-c816-4ce0-a2de-c7222e5e0303"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>